--- a/microsat_PCR_templates.xlsx
+++ b/microsat_PCR_templates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryaneckert/Documents/HBOI/DATA/Carrie Bow/DATA/Microsat/PCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryaneckert/Documents/GitHub/Mcav-microsats/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="480" windowWidth="19200" windowHeight="21040" activeTab="1"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="19200" windowHeight="21040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Primer Sequences" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="165">
   <si>
     <t>Total Vol</t>
   </si>
@@ -211,9 +211,6 @@
     <t>M.cav Microsat Dilution Plate  1 Layout</t>
   </si>
   <si>
-    <t>Plate 1 Dilutions</t>
-  </si>
-  <si>
     <t>Locus</t>
   </si>
   <si>
@@ -515,6 +512,21 @@
   </si>
   <si>
     <t>TAIL_C</t>
+  </si>
+  <si>
+    <t>Plate 1 Dilutions (µL PCR product)</t>
+  </si>
+  <si>
+    <t>Plate 1 Dilutions (µL nfw)</t>
+  </si>
+  <si>
+    <t>Plate 1 Dilutions (µL PCR product:nfw)</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>Aliquot 7.5 µL for each Tail</t>
   </si>
 </sst>
 </file>
@@ -524,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -592,6 +604,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1216,7 +1236,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,12 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1328,84 +1342,292 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,210 +1637,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1901,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1922,469 +1942,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="C1" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="D1" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="E1" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="F1" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="G1" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="H1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="I1" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="J1" s="99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="B2" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="C2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="D2" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="G2" s="130">
+        <v>18</v>
+      </c>
+      <c r="H2" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="121"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E3" s="141"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="133"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="128">
+        <v>15</v>
+      </c>
+      <c r="H4" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="133"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="121"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="141"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="128">
+        <v>15</v>
+      </c>
+      <c r="H6" s="128" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="133"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="126"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="144"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="138" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="122">
+      <c r="F8" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="131">
         <v>18</v>
       </c>
-      <c r="H2" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="130"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="130" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="96" t="s">
+      <c r="H8" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="121"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="141"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="133"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="124" t="s">
+      <c r="G10" s="128">
+        <v>15</v>
+      </c>
+      <c r="H10" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="133"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="121"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="133"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="128">
+        <v>15</v>
+      </c>
+      <c r="H12" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="133"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="122"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="142"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="134"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="130">
+        <v>18</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="121"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="141"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="133"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="114">
+      <c r="F16" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="128">
         <v>15</v>
       </c>
-      <c r="H4" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="115"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="130" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="96" t="s">
+      <c r="H16" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="133"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="121"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="141"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="133"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="114">
+      <c r="G18" s="128">
         <v>15</v>
       </c>
-      <c r="H6" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="115"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="121"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="141" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="112">
-        <v>18</v>
-      </c>
-      <c r="H8" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="130"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="114">
-        <v>15</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="114" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="115"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="130"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="114">
-        <v>15</v>
-      </c>
-      <c r="H12" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="115"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="137" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="138" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="122">
-        <v>18</v>
-      </c>
-      <c r="H14" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="122" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="114">
-        <v>15</v>
-      </c>
-      <c r="H16" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="115"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="115"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="96" t="s">
+      <c r="H18" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="I18" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="133"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="122"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="114">
-        <v>15</v>
-      </c>
-      <c r="H18" s="114" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="114" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="115"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="134"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>537.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>SUM(C22:C23)</f>
+        <v>4987.46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A2:A3"/>
@@ -2393,54 +2467,16 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2448,766 +2484,770 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="K1" s="86"/>
-    </row>
-    <row r="2" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="63" t="s">
+      <c r="C2" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="D2" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="E2" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="F2" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="G2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="H2" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="I2" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="J2" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="K2" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="88" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="90">
-        <v>14.2</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90">
+      <c r="A3" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78">
         <v>11347.4</v>
       </c>
-      <c r="E3" s="91">
+      <c r="E3" s="79">
         <f t="shared" ref="E3:E23" si="0">((C3/1000)*1000000)/D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="91">
+      <c r="F3" s="79">
         <v>32</v>
       </c>
-      <c r="G3" s="91">
+      <c r="G3" s="79">
         <v>50</v>
       </c>
-      <c r="H3" s="92" t="e">
+      <c r="H3" s="80" t="e">
         <f>(G3*F3)/E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="93" t="e">
+      <c r="I3" s="81" t="e">
         <f>F3-H3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94">
+      <c r="J3" s="81"/>
+      <c r="K3" s="82">
         <f>((J3/1000)*1000000)/D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="96">
-        <v>22</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96">
+      <c r="A4" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84">
         <v>10679</v>
       </c>
-      <c r="E4" s="97">
+      <c r="E4" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="85">
         <v>32</v>
       </c>
-      <c r="G4" s="98">
+      <c r="G4" s="86">
         <v>50</v>
       </c>
-      <c r="H4" s="99" t="e">
+      <c r="H4" s="87" t="e">
         <f t="shared" ref="H4:H19" si="1">(G4*F4)/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="100" t="e">
+      <c r="I4" s="88" t="e">
         <f t="shared" ref="I4:I20" si="2">F4-H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101">
+      <c r="J4" s="88"/>
+      <c r="K4" s="89">
         <f t="shared" ref="K4:K20" si="3">((J4/1000)*1000000)/D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="96">
-        <v>18.2</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96">
+      <c r="A5" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84">
         <v>11256.4</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="85">
         <v>32</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="86">
         <v>50</v>
       </c>
-      <c r="H5" s="99" t="e">
+      <c r="H5" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="100" t="e">
+      <c r="I5" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101">
+      <c r="J5" s="88"/>
+      <c r="K5" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="96">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96">
+      <c r="A6" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84">
         <v>10293.799999999999</v>
       </c>
-      <c r="E6" s="97">
+      <c r="E6" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="85">
         <v>32</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="86">
         <v>50</v>
       </c>
-      <c r="H6" s="99" t="e">
+      <c r="H6" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="100" t="e">
+      <c r="I6" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101">
+      <c r="J6" s="88"/>
+      <c r="K6" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="96">
-        <v>19</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96">
+      <c r="A7" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84">
         <v>11441.4</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="85">
         <v>32</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="86">
         <v>50</v>
       </c>
-      <c r="H7" s="99" t="e">
+      <c r="H7" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="100" t="e">
+      <c r="I7" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101">
+      <c r="J7" s="88"/>
+      <c r="K7" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="96">
-        <v>14.4</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96">
+      <c r="A8" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84">
         <v>10596</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="85">
         <v>32</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="86">
         <v>50</v>
       </c>
-      <c r="H8" s="99" t="e">
+      <c r="H8" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="100" t="e">
+      <c r="I8" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101">
+      <c r="J8" s="88"/>
+      <c r="K8" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="96">
-        <v>19.2</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96">
+      <c r="A9" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84">
         <v>10418.799999999999</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="85">
         <v>32</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="86">
         <v>50</v>
       </c>
-      <c r="H9" s="99" t="e">
+      <c r="H9" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="100" t="e">
+      <c r="I9" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101">
+      <c r="J9" s="88"/>
+      <c r="K9" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="96">
-        <v>20.2</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96">
+      <c r="A10" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84">
         <v>10331.799999999999</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="85">
         <v>32</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="86">
         <v>50</v>
       </c>
-      <c r="H10" s="99" t="e">
+      <c r="H10" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="100" t="e">
+      <c r="I10" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101">
+      <c r="J10" s="88"/>
+      <c r="K10" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="96">
-        <v>20.2</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96">
+      <c r="A11" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84">
         <v>10701</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="85">
         <v>32</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="86">
         <v>50</v>
       </c>
-      <c r="H11" s="99" t="e">
+      <c r="H11" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="100" t="e">
+      <c r="I11" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101">
+      <c r="J11" s="88"/>
+      <c r="K11" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="96">
-        <v>25</v>
-      </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96">
+      <c r="A12" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84">
         <v>6134</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="85">
         <v>48</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="86">
         <v>50</v>
       </c>
-      <c r="H12" s="99" t="e">
+      <c r="H12" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="100" t="e">
+      <c r="I12" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101">
+      <c r="J12" s="88"/>
+      <c r="K12" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="96">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96">
+      <c r="A13" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84">
         <v>5819.8</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="85">
         <v>48</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="86">
         <v>50</v>
       </c>
-      <c r="H13" s="99" t="e">
+      <c r="H13" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="100" t="e">
+      <c r="I13" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101">
+      <c r="J13" s="88"/>
+      <c r="K13" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="96">
-        <v>23.1</v>
-      </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96">
+      <c r="A14" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84">
         <v>6232</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="85">
         <v>48</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="86">
         <v>50</v>
       </c>
-      <c r="H14" s="99" t="e">
+      <c r="H14" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="100" t="e">
+      <c r="I14" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101">
+      <c r="J14" s="88"/>
+      <c r="K14" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="96">
-        <v>16.7</v>
-      </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96">
+      <c r="A15" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84">
         <v>5773.8</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="97">
+      <c r="F15" s="85">
         <v>48</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="86">
         <v>50</v>
       </c>
-      <c r="H15" s="99" t="e">
+      <c r="H15" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="100" t="e">
+      <c r="I15" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101">
+      <c r="J15" s="88"/>
+      <c r="K15" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="96">
-        <v>22.8</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96">
+      <c r="A16" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84">
         <v>5844.8</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="97">
+      <c r="F16" s="85">
         <v>48</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="86">
         <v>50</v>
       </c>
-      <c r="H16" s="99" t="e">
+      <c r="H16" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="100" t="e">
+      <c r="I16" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101">
+      <c r="J16" s="88"/>
+      <c r="K16" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="96">
-        <v>23.6</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96">
+      <c r="A17" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84">
         <v>5795.8</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="85">
         <v>48</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="86">
         <v>50</v>
       </c>
-      <c r="H17" s="99" t="e">
+      <c r="H17" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="100" t="e">
+      <c r="I17" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101">
+      <c r="J17" s="88"/>
+      <c r="K17" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="96">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96">
+      <c r="A18" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84">
         <v>5874.8</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="97">
+      <c r="F18" s="85">
         <v>48</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="86">
         <v>50</v>
       </c>
-      <c r="H18" s="99" t="e">
+      <c r="H18" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="100" t="e">
+      <c r="I18" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101">
+      <c r="J18" s="88"/>
+      <c r="K18" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="96">
-        <v>14.4</v>
-      </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96">
+      <c r="A19" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84">
         <v>5766.8</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="97">
+      <c r="F19" s="85">
         <v>48</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="86">
         <v>50</v>
       </c>
-      <c r="H19" s="99" t="e">
+      <c r="H19" s="87" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="100" t="e">
+      <c r="I19" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101">
+      <c r="J19" s="88"/>
+      <c r="K19" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="136">
-        <v>23.1</v>
-      </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136">
+      <c r="A20" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101">
         <v>6306.2</v>
       </c>
-      <c r="E20" s="143">
+      <c r="E20" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="143">
+      <c r="F20" s="85">
         <v>48</v>
       </c>
-      <c r="G20" s="144">
+      <c r="G20" s="85">
         <v>50</v>
       </c>
-      <c r="H20" s="145" t="e">
+      <c r="H20" s="105" t="e">
         <f>(G20*F20)/E20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="146" t="e">
+      <c r="I20" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147">
+      <c r="J20" s="88"/>
+      <c r="K20" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84">
+        <v>4987.5</v>
+      </c>
+      <c r="E21" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="85">
+        <v>64</v>
+      </c>
+      <c r="G21" s="85">
+        <v>50</v>
+      </c>
+      <c r="H21" s="105" t="e">
+        <f t="shared" ref="H21:H23" si="4">(G21*F21)/E21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="88" t="e">
+        <f t="shared" ref="I21:I23" si="5">F21-H21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="88"/>
+      <c r="K21" s="104">
+        <f t="shared" ref="K21:K23" si="6">((J21/1000)*1000000)/D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="143" t="e">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97">
+      <c r="F22" s="85">
+        <v>64</v>
+      </c>
+      <c r="G22" s="85">
         <v>50</v>
       </c>
-      <c r="H21" s="148"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="101"/>
-    </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="95" t="s">
+      <c r="H22" s="105" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="88" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="88"/>
+      <c r="K22" s="104" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="143" t="e">
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97">
+      <c r="F23" s="92">
+        <v>64</v>
+      </c>
+      <c r="G23" s="92">
         <v>50</v>
       </c>
-      <c r="H22" s="148"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="101"/>
-    </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104" t="e">
-        <f t="shared" si="0"/>
+      <c r="H23" s="106" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104">
-        <v>50</v>
-      </c>
-      <c r="H23" s="149"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
+      <c r="I23" s="93" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="95" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="107" t="s">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="107" t="s">
-        <v>157</v>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="95" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3311,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -3343,7 +3383,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D29"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3367,86 +3407,86 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="79" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="63" t="s">
+      <c r="F2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60">
-        <v>1</v>
-      </c>
-      <c r="C3" s="66">
-        <v>1</v>
-      </c>
-      <c r="D3" s="70">
+      <c r="B3" s="55">
+        <v>1</v>
+      </c>
+      <c r="C3" s="60">
+        <v>1</v>
+      </c>
+      <c r="D3" s="145">
         <f>E3-SUM(C3:C11)</f>
         <v>38</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="147">
         <v>50</v>
       </c>
-      <c r="F3" s="61">
-        <v>1</v>
-      </c>
-      <c r="H3" s="59" t="s">
+      <c r="F3" s="149">
+        <v>1</v>
+      </c>
+      <c r="H3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="60">
-        <v>1</v>
-      </c>
-      <c r="J3" s="66">
+      <c r="I3" s="55">
+        <v>1</v>
+      </c>
+      <c r="J3" s="60">
         <f>C3*2</f>
         <v>2</v>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="145">
         <f>L3-SUM(J3:J11)</f>
         <v>76</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="147">
         <v>100</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -3455,10 +3495,10 @@
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="53"/>
-      <c r="H4" s="47" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="150"/>
+      <c r="H4" s="45" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1">
@@ -3468,12 +3508,12 @@
         <f t="shared" ref="J4:J28" si="0">C4*2</f>
         <v>4</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="53"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="150"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -3482,10 +3522,10 @@
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="53"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="145"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="150"/>
+      <c r="H5" s="45" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="1">
@@ -3495,12 +3535,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="53"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="150"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -3509,10 +3549,10 @@
       <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="53"/>
-      <c r="H6" s="47" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="150"/>
+      <c r="H6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="1">
@@ -3522,12 +3562,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="53"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="150"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -3536,10 +3576,10 @@
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="53"/>
-      <c r="H7" s="47" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="150"/>
+      <c r="H7" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1">
@@ -3549,12 +3589,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="53"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="150"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -3563,10 +3603,10 @@
       <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="53"/>
-      <c r="H8" s="47" t="s">
+      <c r="D8" s="145"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="150"/>
+      <c r="H8" s="45" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1">
@@ -3576,12 +3616,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="53"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="150"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -3590,10 +3630,10 @@
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="53"/>
-      <c r="H9" s="47" t="s">
+      <c r="D9" s="145"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="150"/>
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="1">
@@ -3603,12 +3643,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -3617,10 +3657,10 @@
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="53"/>
-      <c r="H10" s="47" t="s">
+      <c r="D10" s="145"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="150"/>
+      <c r="H10" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1">
@@ -3630,80 +3670,80 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="53"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="150"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="73">
-        <v>1</v>
-      </c>
-      <c r="C11" s="74">
-        <v>1</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="75"/>
-      <c r="H11" s="72" t="s">
+      <c r="B11" s="65">
+        <v>1</v>
+      </c>
+      <c r="C11" s="66">
+        <v>1</v>
+      </c>
+      <c r="D11" s="145"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="152"/>
+      <c r="H11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="73">
-        <v>1</v>
-      </c>
-      <c r="J11" s="74">
+      <c r="I11" s="65">
+        <v>1</v>
+      </c>
+      <c r="J11" s="66">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="75"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="152"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="77">
-        <v>1</v>
-      </c>
-      <c r="C12" s="78">
-        <v>1</v>
-      </c>
-      <c r="D12" s="79">
+      <c r="B12" s="68">
+        <v>1</v>
+      </c>
+      <c r="C12" s="69">
+        <v>1</v>
+      </c>
+      <c r="D12" s="153">
         <f>E12-SUM(C12:C20)</f>
         <v>38</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="154">
         <v>50</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="155">
         <v>2</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="77">
-        <v>1</v>
-      </c>
-      <c r="J12" s="78">
+      <c r="I12" s="68">
+        <v>1</v>
+      </c>
+      <c r="J12" s="69">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="153">
         <f t="shared" ref="K12" si="1">D12*2</f>
         <v>76</v>
       </c>
-      <c r="L12" s="80">
+      <c r="L12" s="154">
         <v>100</v>
       </c>
-      <c r="M12" s="81">
+      <c r="M12" s="155">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
@@ -3712,10 +3752,10 @@
       <c r="C13" s="12">
         <v>2</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="53"/>
-      <c r="H13" s="47" t="s">
+      <c r="D13" s="145"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="150"/>
+      <c r="H13" s="45" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="1">
@@ -3725,12 +3765,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="53"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="150"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
@@ -3739,10 +3779,10 @@
       <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="53"/>
-      <c r="H14" s="47" t="s">
+      <c r="D14" s="145"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="150"/>
+      <c r="H14" s="45" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1">
@@ -3752,12 +3792,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="53"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="150"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
@@ -3766,10 +3806,10 @@
       <c r="C15" s="12">
         <v>2</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="53"/>
-      <c r="H15" s="47" t="s">
+      <c r="D15" s="145"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="150"/>
+      <c r="H15" s="45" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="1">
@@ -3779,12 +3819,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="53"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="150"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -3793,10 +3833,10 @@
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="53"/>
-      <c r="H16" s="47" t="s">
+      <c r="D16" s="145"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="150"/>
+      <c r="H16" s="45" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="1">
@@ -3806,12 +3846,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="53"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="150"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -3820,10 +3860,10 @@
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="53"/>
-      <c r="H17" s="47" t="s">
+      <c r="D17" s="145"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="150"/>
+      <c r="H17" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="1">
@@ -3833,12 +3873,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="53"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="150"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
@@ -3847,10 +3887,10 @@
       <c r="C18" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="53"/>
-      <c r="H18" s="47" t="s">
+      <c r="D18" s="145"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="150"/>
+      <c r="H18" s="45" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1">
@@ -3860,12 +3900,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="53"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="150"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1">
@@ -3874,10 +3914,10 @@
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="53"/>
-      <c r="H19" s="47" t="s">
+      <c r="D19" s="145"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="150"/>
+      <c r="H19" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1">
@@ -3887,78 +3927,78 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K19" s="70"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="53"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="150"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="83">
-        <v>1</v>
-      </c>
-      <c r="C20" s="84">
-        <v>1</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="H20" s="82" t="s">
+      <c r="B20" s="71">
+        <v>1</v>
+      </c>
+      <c r="C20" s="72">
+        <v>1</v>
+      </c>
+      <c r="D20" s="146"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="151"/>
+      <c r="H20" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="83">
-        <v>1</v>
-      </c>
-      <c r="J20" s="84">
+      <c r="I20" s="71">
+        <v>1</v>
+      </c>
+      <c r="J20" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="151"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="60">
-        <v>1</v>
-      </c>
-      <c r="C21" s="66">
-        <v>1</v>
-      </c>
-      <c r="D21" s="70">
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="60">
+        <v>1</v>
+      </c>
+      <c r="D21" s="145">
         <v>38</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="147">
         <v>50</v>
       </c>
-      <c r="F21" s="61">
-        <v>3</v>
-      </c>
-      <c r="H21" s="59" t="s">
+      <c r="F21" s="149">
+        <v>3</v>
+      </c>
+      <c r="H21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="60">
-        <v>1</v>
-      </c>
-      <c r="J21" s="66">
+      <c r="I21" s="55">
+        <v>1</v>
+      </c>
+      <c r="J21" s="60">
         <v>2</v>
       </c>
-      <c r="K21" s="70">
+      <c r="K21" s="145">
         <f>L21-SUM(J21:J29)</f>
         <v>76</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="147">
         <v>100</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="149">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -3967,10 +4007,10 @@
       <c r="C22" s="12">
         <v>2</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="53"/>
-      <c r="H22" s="47" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="150"/>
+      <c r="H22" s="45" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="1">
@@ -3979,200 +4019,209 @@
       <c r="J22" s="12">
         <v>4</v>
       </c>
-      <c r="K22" s="70"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="53"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="150"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="67">
-        <v>1</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="53"/>
-      <c r="H23" s="54" t="s">
+      <c r="C23" s="61">
+        <v>1</v>
+      </c>
+      <c r="D23" s="145"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="150"/>
+      <c r="H23" s="51" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K23" s="70"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="53"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="150"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="61">
         <v>2</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="53"/>
-      <c r="H24" s="54" t="s">
+      <c r="D24" s="145"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="150"/>
+      <c r="H24" s="51" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="53"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="150"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="67">
-        <v>1</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="53"/>
-      <c r="H25" s="54" t="s">
+      <c r="C25" s="61">
+        <v>1</v>
+      </c>
+      <c r="D25" s="145"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="150"/>
+      <c r="H25" s="51" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
       </c>
-      <c r="J25" s="67">
+      <c r="J25" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K25" s="70"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="53"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="150"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="51" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="61">
         <v>2</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="53"/>
-      <c r="H26" s="54" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="150"/>
+      <c r="H26" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="67">
+      <c r="J26" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K26" s="70"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="53"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="67">
-        <v>1</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="53"/>
-      <c r="H27" s="54" t="s">
+      <c r="C27" s="61">
+        <v>1</v>
+      </c>
+      <c r="D27" s="145"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="150"/>
+      <c r="H27" s="51" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K27" s="70"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="53"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="67">
-        <v>1</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="53"/>
-      <c r="H28" s="54" t="s">
+      <c r="C28" s="61">
+        <v>1</v>
+      </c>
+      <c r="D28" s="145"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="150"/>
+      <c r="H28" s="51" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K28" s="70"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="53"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="56">
-        <v>1</v>
-      </c>
-      <c r="C29" s="68">
-        <v>1</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="H29" s="55" t="s">
+      <c r="B29" s="53">
+        <v>1</v>
+      </c>
+      <c r="C29" s="62">
+        <v>1</v>
+      </c>
+      <c r="D29" s="146"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="151"/>
+      <c r="H29" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="56">
-        <v>1</v>
-      </c>
-      <c r="J29" s="68">
+      <c r="I29" s="53">
+        <v>1</v>
+      </c>
+      <c r="J29" s="62">
         <v>2</v>
       </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="L21:L29"/>
+    <mergeCell ref="M21:M29"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="L3:L11"/>
+    <mergeCell ref="M3:M11"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="L12:L20"/>
+    <mergeCell ref="M12:M20"/>
     <mergeCell ref="D21:D29"/>
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="F21:F29"/>
@@ -4182,15 +4231,6 @@
     <mergeCell ref="D12:D20"/>
     <mergeCell ref="E12:E20"/>
     <mergeCell ref="F12:F20"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="L21:L29"/>
-    <mergeCell ref="M21:M29"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="L3:L11"/>
-    <mergeCell ref="M3:M11"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="L12:L20"/>
-    <mergeCell ref="M12:M20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4206,7 +4246,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4265,50 +4305,50 @@
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35">
         <f>B9</f>
         <v>3</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <f>C10</f>
         <v>6</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <f>D10+1</f>
         <v>9</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <f>E9</f>
         <v>11</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <f>F10</f>
         <v>14</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <f>G10+1</f>
         <v>17</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <f>H9</f>
         <v>19</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <f>I10</f>
         <v>22</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="35">
         <f>J10+1</f>
         <v>25</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <f>K9</f>
         <v>27</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="36">
         <f>L10</f>
         <v>30</v>
       </c>
@@ -4317,7 +4357,7 @@
       <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <f>B3</f>
         <v>1</v>
       </c>
@@ -4361,7 +4401,7 @@
         <f>K9+1</f>
         <v>28</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <f>L10</f>
         <v>30</v>
       </c>
@@ -4370,7 +4410,7 @@
       <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="37">
         <f>B3</f>
         <v>1</v>
       </c>
@@ -4414,7 +4454,7 @@
         <f>L4</f>
         <v>28</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="38">
         <f>L10+1</f>
         <v>31</v>
       </c>
@@ -4423,7 +4463,7 @@
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <f>B3+1</f>
         <v>2</v>
       </c>
@@ -4467,7 +4507,7 @@
         <f>L4</f>
         <v>28</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="38">
         <f>M5</f>
         <v>31</v>
       </c>
@@ -4476,7 +4516,7 @@
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="37">
         <f>B6</f>
         <v>2</v>
       </c>
@@ -4520,7 +4560,7 @@
         <f>L4+1</f>
         <v>29</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="38">
         <f>M5</f>
         <v>31</v>
       </c>
@@ -4529,7 +4569,7 @@
       <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <f>B6</f>
         <v>2</v>
       </c>
@@ -4573,7 +4613,7 @@
         <f>L7</f>
         <v>29</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4581,7 +4621,7 @@
       <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="37">
         <f>B6+1</f>
         <v>3</v>
       </c>
@@ -4625,7 +4665,7 @@
         <f>L7</f>
         <v>29</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4633,51 +4673,51 @@
       <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="39">
         <f>B9</f>
         <v>3</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="40">
         <f>C7+1</f>
         <v>6</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <f>D8</f>
         <v>8</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <f>E9</f>
         <v>11</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <f>F7+1</f>
         <v>14</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="40">
         <f>G8</f>
         <v>16</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="40">
         <f>H9</f>
         <v>19</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="40">
         <f>I7+1</f>
         <v>22</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="40">
         <f>J8</f>
         <v>24</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="40">
         <f>K9</f>
         <v>27</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="40">
         <f>L7+1</f>
         <v>30</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4702,55 +4742,55 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="P13" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N14" s="47" t="s">
+      <c r="N14" s="45" t="s">
         <v>31</v>
       </c>
       <c r="O14" s="33">
         <v>12.5</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="46">
         <f>O14*106</f>
         <v>1325</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N15" s="49" t="s">
+      <c r="N15" s="47" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="33">
         <v>2.5</v>
       </c>
-      <c r="P15" s="150">
+      <c r="P15" s="107">
         <f t="shared" ref="P15:P16" si="0">O15*106</f>
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="45" t="s">
         <v>34</v>
       </c>
       <c r="O16" s="33">
         <v>8.5</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="46">
         <f t="shared" si="0"/>
         <v>901</v>
       </c>
@@ -4765,13 +4805,13 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
-      <c r="N17" s="47" t="s">
+      <c r="N17" s="45" t="s">
         <v>35</v>
       </c>
       <c r="O17" s="33">
         <v>1.5</v>
       </c>
-      <c r="P17" s="48"/>
+      <c r="P17" s="46"/>
     </row>
     <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
@@ -4783,14 +4823,14 @@
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
-      <c r="N18" s="50" t="s">
+      <c r="N18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="49">
         <f>SUM(O14:O17)</f>
         <v>25</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="50">
         <f>O18*106</f>
         <v>2650</v>
       </c>
@@ -4852,10 +4892,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M10"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4917,50 +4957,50 @@
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35">
         <f>B9</f>
         <v>3</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <f>C10</f>
         <v>6</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <f>D10+1</f>
         <v>9</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <f>E9</f>
         <v>11</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <f>F10</f>
         <v>14</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <f>G10+1</f>
         <v>17</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <f>H9</f>
         <v>19</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <f>I10</f>
         <v>22</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="35">
         <f>J10+1</f>
         <v>25</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <f>K9</f>
         <v>27</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="36">
         <f>L10</f>
         <v>30</v>
       </c>
@@ -4969,7 +5009,7 @@
       <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <f>B3</f>
         <v>1</v>
       </c>
@@ -5013,7 +5053,7 @@
         <f>K9+1</f>
         <v>28</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <f>L10</f>
         <v>30</v>
       </c>
@@ -5022,7 +5062,7 @@
       <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="37">
         <f>B3</f>
         <v>1</v>
       </c>
@@ -5066,7 +5106,7 @@
         <f>L4</f>
         <v>28</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="38">
         <f>L10+1</f>
         <v>31</v>
       </c>
@@ -5075,7 +5115,7 @@
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <f>B3+1</f>
         <v>2</v>
       </c>
@@ -5119,7 +5159,7 @@
         <f>L4</f>
         <v>28</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="38">
         <f>M5</f>
         <v>31</v>
       </c>
@@ -5128,7 +5168,7 @@
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="37">
         <f>B6</f>
         <v>2</v>
       </c>
@@ -5172,7 +5212,7 @@
         <f>L4+1</f>
         <v>29</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="38">
         <f>M5</f>
         <v>31</v>
       </c>
@@ -5181,7 +5221,7 @@
       <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <f>B6</f>
         <v>2</v>
       </c>
@@ -5225,7 +5265,7 @@
         <f>L7</f>
         <v>29</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5233,7 +5273,7 @@
       <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="37">
         <f>B6+1</f>
         <v>3</v>
       </c>
@@ -5277,7 +5317,7 @@
         <f>L7</f>
         <v>29</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5285,51 +5325,51 @@
       <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="39">
         <f>B9</f>
         <v>3</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="40">
         <f>C7+1</f>
         <v>6</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <f>D8</f>
         <v>8</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <f>E9</f>
         <v>11</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <f>F7+1</f>
         <v>14</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="40">
         <f>G8</f>
         <v>16</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="40">
         <f>H9</f>
         <v>19</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="40">
         <f>I7+1</f>
         <v>22</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="40">
         <f>J8</f>
         <v>24</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="40">
         <f>K9</f>
         <v>27</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="40">
         <f>L7+1</f>
         <v>30</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5342,7 +5382,7 @@
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D12"/>
       <c r="K12"/>
@@ -5391,167 +5431,1101 @@
       <c r="A14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
+      <c r="B14" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="110" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="40"/>
+      <c r="B15" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="113" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="40"/>
+      <c r="B16" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="113" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="40"/>
+      <c r="B17" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="113" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="40"/>
+      <c r="B18" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="113" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="40"/>
+      <c r="B19" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="113" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="40"/>
+      <c r="B20" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="113" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="43"/>
+      <c r="B21" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" s="116" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D23"/>
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2</v>
+      </c>
+      <c r="D24" s="22">
+        <v>3</v>
+      </c>
+      <c r="E24" s="22">
+        <v>4</v>
+      </c>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22">
+        <v>6</v>
+      </c>
+      <c r="H24" s="22">
+        <v>7</v>
+      </c>
+      <c r="I24" s="22">
+        <v>8</v>
+      </c>
+      <c r="J24" s="22">
+        <v>9</v>
+      </c>
+      <c r="K24" s="22">
+        <v>10</v>
+      </c>
+      <c r="L24" s="22">
+        <v>11</v>
+      </c>
+      <c r="M24" s="22">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="A25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="34">
+        <v>3</v>
+      </c>
+      <c r="C25" s="35">
+        <v>3</v>
+      </c>
+      <c r="D25" s="35">
+        <v>3</v>
+      </c>
+      <c r="E25" s="35">
+        <v>3</v>
+      </c>
+      <c r="F25" s="35">
+        <v>3</v>
+      </c>
+      <c r="G25" s="35">
+        <v>3</v>
+      </c>
+      <c r="H25" s="35">
+        <v>3</v>
+      </c>
+      <c r="I25" s="35">
+        <v>3</v>
+      </c>
+      <c r="J25" s="35">
+        <v>3</v>
+      </c>
+      <c r="K25" s="35">
+        <v>3</v>
+      </c>
+      <c r="L25" s="35">
+        <v>3</v>
+      </c>
+      <c r="M25" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="A26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="37">
+        <v>3</v>
+      </c>
+      <c r="C26" s="19">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19">
+        <v>3</v>
+      </c>
+      <c r="F26" s="19">
+        <v>3</v>
+      </c>
+      <c r="G26" s="19">
+        <v>3</v>
+      </c>
+      <c r="H26" s="19">
+        <v>3</v>
+      </c>
+      <c r="I26" s="19">
+        <v>3</v>
+      </c>
+      <c r="J26" s="19">
+        <v>3</v>
+      </c>
+      <c r="K26" s="19">
+        <v>3</v>
+      </c>
+      <c r="L26" s="19">
+        <v>3</v>
+      </c>
+      <c r="M26" s="38">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-      <c r="K27"/>
-      <c r="L27"/>
+      <c r="A27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="37">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19">
+        <v>3</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3</v>
+      </c>
+      <c r="F27" s="19">
+        <v>3</v>
+      </c>
+      <c r="G27" s="19">
+        <v>3</v>
+      </c>
+      <c r="H27" s="19">
+        <v>3</v>
+      </c>
+      <c r="I27" s="19">
+        <v>3</v>
+      </c>
+      <c r="J27" s="19">
+        <v>3</v>
+      </c>
+      <c r="K27" s="19">
+        <v>3</v>
+      </c>
+      <c r="L27" s="19">
+        <v>3</v>
+      </c>
+      <c r="M27" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="37">
+        <v>3</v>
+      </c>
+      <c r="C28" s="19">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19">
+        <v>3</v>
+      </c>
+      <c r="E28" s="19">
+        <v>3</v>
+      </c>
+      <c r="F28" s="19">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>3</v>
+      </c>
+      <c r="H28" s="19">
+        <v>3</v>
+      </c>
+      <c r="I28" s="19">
+        <v>3</v>
+      </c>
+      <c r="J28" s="19">
+        <v>3</v>
+      </c>
+      <c r="K28" s="19">
+        <v>3</v>
+      </c>
+      <c r="L28" s="19">
+        <v>3</v>
+      </c>
+      <c r="M28" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="37">
+        <v>3</v>
+      </c>
+      <c r="C29" s="19">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19">
+        <v>3</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3</v>
+      </c>
+      <c r="F29" s="19">
+        <v>3</v>
+      </c>
+      <c r="G29" s="19">
+        <v>3</v>
+      </c>
+      <c r="H29" s="19">
+        <v>3</v>
+      </c>
+      <c r="I29" s="19">
+        <v>3</v>
+      </c>
+      <c r="J29" s="19">
+        <v>3</v>
+      </c>
+      <c r="K29" s="19">
+        <v>3</v>
+      </c>
+      <c r="L29" s="19">
+        <v>3</v>
+      </c>
+      <c r="M29" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="37">
+        <v>3</v>
+      </c>
+      <c r="C30" s="19">
+        <v>3</v>
+      </c>
+      <c r="D30" s="19">
+        <v>3</v>
+      </c>
+      <c r="E30" s="19">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19">
+        <v>3</v>
+      </c>
+      <c r="G30" s="19">
+        <v>3</v>
+      </c>
+      <c r="H30" s="19">
+        <v>3</v>
+      </c>
+      <c r="I30" s="19">
+        <v>3</v>
+      </c>
+      <c r="J30" s="19">
+        <v>3</v>
+      </c>
+      <c r="K30" s="19">
+        <v>3</v>
+      </c>
+      <c r="L30" s="19">
+        <v>3</v>
+      </c>
+      <c r="M30" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="37">
+        <v>3</v>
+      </c>
+      <c r="C31" s="19">
+        <v>3</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3</v>
+      </c>
+      <c r="F31" s="19">
+        <v>3</v>
+      </c>
+      <c r="G31" s="19">
+        <v>3</v>
+      </c>
+      <c r="H31" s="19">
+        <v>3</v>
+      </c>
+      <c r="I31" s="19">
+        <v>3</v>
+      </c>
+      <c r="J31" s="19">
+        <v>3</v>
+      </c>
+      <c r="K31" s="19">
+        <v>3</v>
+      </c>
+      <c r="L31" s="19">
+        <v>3</v>
+      </c>
+      <c r="M31" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="39">
+        <v>3</v>
+      </c>
+      <c r="C32" s="40">
+        <v>3</v>
+      </c>
+      <c r="D32" s="40">
+        <v>3</v>
+      </c>
+      <c r="E32" s="40">
+        <v>3</v>
+      </c>
+      <c r="F32" s="40">
+        <v>3</v>
+      </c>
+      <c r="G32" s="40">
+        <v>3</v>
+      </c>
+      <c r="H32" s="40">
+        <v>3</v>
+      </c>
+      <c r="I32" s="40">
+        <v>3</v>
+      </c>
+      <c r="J32" s="40">
+        <v>3</v>
+      </c>
+      <c r="K32" s="40">
+        <v>3</v>
+      </c>
+      <c r="L32" s="40">
+        <v>3</v>
+      </c>
+      <c r="M32" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22">
+        <v>2</v>
+      </c>
+      <c r="D35" s="22">
+        <v>3</v>
+      </c>
+      <c r="E35" s="22">
+        <v>4</v>
+      </c>
+      <c r="F35" s="22">
+        <v>5</v>
+      </c>
+      <c r="G35" s="22">
+        <v>6</v>
+      </c>
+      <c r="H35" s="22">
+        <v>7</v>
+      </c>
+      <c r="I35" s="22">
+        <v>8</v>
+      </c>
+      <c r="J35" s="22">
+        <v>9</v>
+      </c>
+      <c r="K35" s="22">
+        <v>10</v>
+      </c>
+      <c r="L35" s="22">
+        <v>11</v>
+      </c>
+      <c r="M35" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="34">
+        <v>0</v>
+      </c>
+      <c r="C36" s="35">
+        <v>0</v>
+      </c>
+      <c r="D36" s="35">
+        <v>0</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>0</v>
+      </c>
+      <c r="I36" s="35">
+        <v>0</v>
+      </c>
+      <c r="J36" s="35">
+        <v>0</v>
+      </c>
+      <c r="K36" s="35">
+        <v>0</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0</v>
+      </c>
+      <c r="M36" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0</v>
+      </c>
+      <c r="J37" s="19">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19">
+        <v>0</v>
+      </c>
+      <c r="L37" s="19">
+        <v>0</v>
+      </c>
+      <c r="M37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="37">
+        <v>0</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0</v>
+      </c>
+      <c r="L38" s="19">
+        <v>0</v>
+      </c>
+      <c r="M38" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37">
+        <v>0</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <v>0</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+      <c r="K39" s="19">
+        <v>0</v>
+      </c>
+      <c r="L39" s="19">
+        <v>0</v>
+      </c>
+      <c r="M39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="37">
+        <v>0</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0</v>
+      </c>
+      <c r="M40" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="37">
+        <v>0</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="37">
+        <v>0</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="39">
+        <v>0</v>
+      </c>
+      <c r="C43" s="40">
+        <v>0</v>
+      </c>
+      <c r="D43" s="40">
+        <v>0</v>
+      </c>
+      <c r="E43" s="40">
+        <v>0</v>
+      </c>
+      <c r="F43" s="40">
+        <v>0</v>
+      </c>
+      <c r="G43" s="40">
+        <v>0</v>
+      </c>
+      <c r="H43" s="40">
+        <v>0</v>
+      </c>
+      <c r="I43" s="40">
+        <v>0</v>
+      </c>
+      <c r="J43" s="40">
+        <v>0</v>
+      </c>
+      <c r="K43" s="40">
+        <v>0</v>
+      </c>
+      <c r="L43" s="40">
+        <v>0</v>
+      </c>
+      <c r="M43" s="41">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/microsat_PCR_templates.xlsx
+++ b/microsat_PCR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="19200" windowHeight="21040" activeTab="1"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Primer Sequences" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="168">
   <si>
     <t>Total Vol</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Full Plate (µl)</t>
   </si>
   <si>
-    <t>M.cav microsat Plate 1 layout</t>
-  </si>
-  <si>
     <t>M.cav Microsat Dilution Plate  1 Layout</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>Aliquot 3.5µLfor each forward primer (need 2ul per run)</t>
   </si>
   <si>
-    <t>Aliquot 5.5µL for each forward primer (need 4ul per run)</t>
-  </si>
-  <si>
     <t>TAIL_A</t>
   </si>
   <si>
@@ -523,10 +517,25 @@
     <t>Plate 1 Dilutions (µL PCR product:nfw)</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>Aliquot 7.5 µL for each Tail</t>
+  </si>
+  <si>
+    <t>µL TE to add for 100 µM stock</t>
+  </si>
+  <si>
+    <t>Aliquot 5.5µL for each reverse primer (need 4ul per run)</t>
+  </si>
+  <si>
+    <t>M.cav microsat Plate 3 layout</t>
+  </si>
+  <si>
+    <t>1:20</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>– C</t>
   </si>
 </sst>
 </file>
@@ -1229,14 +1238,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1523,6 +1534,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1541,17 +1558,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1559,36 +1579,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1640,12 +1657,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1921,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1943,471 +1968,455 @@
   <sheetData>
     <row r="1" spans="1:10" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="97" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="F1" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="G1" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="H1" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="I1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="J1" s="99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="B2" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="C2" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="D2" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="125" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="123" t="s">
-        <v>71</v>
       </c>
       <c r="G2" s="130">
         <v>18</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="J2" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="123"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="143"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="135"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="B4" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="133"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="E4" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="G4" s="131">
+        <v>15</v>
+      </c>
+      <c r="H4" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="123"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="128">
+      <c r="E5" s="143"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="135"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="131">
         <v>15</v>
       </c>
-      <c r="H4" s="128" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="133"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="121"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="133"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="141" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="118" t="s">
+      <c r="H6" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="128">
-        <v>15</v>
-      </c>
-      <c r="H6" s="128" t="s">
+      <c r="I6" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="128" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="133"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="126"/>
-      <c r="B7" s="124"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="144"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="139"/>
+        <v>129</v>
+      </c>
+      <c r="E7" s="146"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="140"/>
     </row>
     <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="C8" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="D8" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="133">
+        <v>18</v>
+      </c>
+      <c r="H8" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="I8" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="123"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="143" t="s">
+      <c r="E9" s="143"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="135"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="131">
+        <v>15</v>
+      </c>
+      <c r="H10" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="135"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="123"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="143"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="135"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="131">
+        <v>15</v>
+      </c>
+      <c r="H12" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="135"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="124"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="144"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="136"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="131">
-        <v>18</v>
-      </c>
-      <c r="H8" s="131" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="131" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="133"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="128">
-        <v>15</v>
-      </c>
-      <c r="H10" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="133"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="121"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="133"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="141" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="128">
-        <v>15</v>
-      </c>
-      <c r="H12" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="133"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="134"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="123" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="123" t="s">
-        <v>71</v>
+      <c r="F14" s="125" t="s">
+        <v>70</v>
       </c>
       <c r="G14" s="130">
         <v>18</v>
       </c>
       <c r="H14" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="130" t="s">
+      <c r="J14" s="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="123"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="121"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="84" t="s">
+      <c r="D15" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="135"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="B16" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="133"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="84" t="s">
+      <c r="E16" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="131">
+        <v>15</v>
+      </c>
+      <c r="H16" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="I16" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="135"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="123"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="128">
+      <c r="E17" s="143"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="135"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="131">
         <v>15</v>
       </c>
-      <c r="H16" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="133"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="141"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="133"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="84" t="s">
+      <c r="H18" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="I18" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="135"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="124"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="141" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="128">
-        <v>15</v>
-      </c>
-      <c r="H18" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="133"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="134"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>537.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <f>SUM(C22:C23)</f>
-        <v>4987.46</v>
-      </c>
+      <c r="E19" s="144"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -2441,21 +2450,21 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J8:J13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="J14:J19"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H14:H15"/>
@@ -2484,17 +2493,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -2504,754 +2516,932 @@
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="74"/>
+      <c r="L1" s="74"/>
+    </row>
+    <row r="2" spans="1:12" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="E2" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="G2" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="I2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="J2" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="K2" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="L2" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="76" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="78">
+        <v>16</v>
+      </c>
+      <c r="C3" s="118">
+        <f>B3*10</f>
+        <v>160</v>
+      </c>
+      <c r="D3" s="78">
+        <v>860.1</v>
+      </c>
+      <c r="E3" s="78">
+        <v>11346.4</v>
+      </c>
+      <c r="F3" s="79">
+        <f t="shared" ref="F3:F23" si="0">((D3/1000)*1000000)/E3</f>
+        <v>75.803779172248468</v>
+      </c>
+      <c r="G3" s="79">
+        <v>32</v>
+      </c>
+      <c r="H3" s="79">
+        <v>50</v>
+      </c>
+      <c r="I3" s="80">
+        <f t="shared" ref="I3:I23" si="1">(H3*G3)/F3</f>
+        <v>21.107127078246716</v>
+      </c>
+      <c r="J3" s="81">
+        <f>G3-I3</f>
+        <v>10.892872921753284</v>
+      </c>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82">
+        <f t="shared" ref="L3:L23" si="2">((K3/1000)*1000000)/E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="84">
+        <v>19.62</v>
+      </c>
+      <c r="C4" s="84">
+        <f t="shared" ref="C4:C23" si="3">B4*10</f>
+        <v>196.20000000000002</v>
+      </c>
+      <c r="D4" s="84">
+        <v>824.9</v>
+      </c>
+      <c r="E4" s="84">
+        <v>10678</v>
+      </c>
+      <c r="F4" s="85">
+        <f t="shared" si="0"/>
+        <v>77.252294437160515</v>
+      </c>
+      <c r="G4" s="85">
+        <v>32</v>
+      </c>
+      <c r="H4" s="86">
+        <v>50</v>
+      </c>
+      <c r="I4" s="87">
+        <f t="shared" si="1"/>
+        <v>20.711358952600317</v>
+      </c>
+      <c r="J4" s="88">
+        <f t="shared" ref="J4:J20" si="4">G4-I4</f>
+        <v>11.288641047399683</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="84">
+        <v>18.62</v>
+      </c>
+      <c r="C5" s="84">
+        <f t="shared" si="3"/>
+        <v>186.20000000000002</v>
+      </c>
+      <c r="D5" s="84">
+        <v>1675.1</v>
+      </c>
+      <c r="E5" s="84">
+        <v>11255.4</v>
+      </c>
+      <c r="F5" s="85">
+        <f t="shared" si="0"/>
+        <v>148.82634113403341</v>
+      </c>
+      <c r="G5" s="85">
+        <v>32</v>
+      </c>
+      <c r="H5" s="86">
+        <v>50</v>
+      </c>
+      <c r="I5" s="87">
+        <f t="shared" si="1"/>
+        <v>10.750785027759539</v>
+      </c>
+      <c r="J5" s="88">
+        <f t="shared" si="4"/>
+        <v>21.249214972240459</v>
+      </c>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="84">
+        <v>17.41</v>
+      </c>
+      <c r="C6" s="84">
+        <f t="shared" si="3"/>
+        <v>174.1</v>
+      </c>
+      <c r="D6" s="84">
+        <v>1529.6</v>
+      </c>
+      <c r="E6" s="84">
+        <v>10292.799999999999</v>
+      </c>
+      <c r="F6" s="85">
+        <f t="shared" si="0"/>
+        <v>148.60873620394838</v>
+      </c>
+      <c r="G6" s="85">
+        <v>32</v>
+      </c>
+      <c r="H6" s="86">
+        <v>50</v>
+      </c>
+      <c r="I6" s="87">
+        <f t="shared" si="1"/>
+        <v>10.766527196652721</v>
+      </c>
+      <c r="J6" s="88">
+        <f t="shared" si="4"/>
+        <v>21.233472803347279</v>
+      </c>
+      <c r="K6" s="88"/>
+      <c r="L6" s="119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="84">
+        <v>16.3</v>
+      </c>
+      <c r="C7" s="84">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="D7" s="84">
+        <v>1770.5</v>
+      </c>
+      <c r="E7" s="84">
+        <v>11440.4</v>
+      </c>
+      <c r="F7" s="85">
+        <f t="shared" si="0"/>
+        <v>154.75857487500437</v>
+      </c>
+      <c r="G7" s="85">
+        <v>32</v>
+      </c>
+      <c r="H7" s="86">
+        <v>50</v>
+      </c>
+      <c r="I7" s="87">
+        <f t="shared" si="1"/>
+        <v>10.338683987574132</v>
+      </c>
+      <c r="J7" s="88">
+        <f t="shared" si="4"/>
+        <v>21.661316012425868</v>
+      </c>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="84">
+        <v>21.62</v>
+      </c>
+      <c r="C8" s="84">
+        <f t="shared" si="3"/>
+        <v>216.20000000000002</v>
+      </c>
+      <c r="D8" s="84">
+        <v>1444.6</v>
+      </c>
+      <c r="E8" s="84">
+        <v>10595</v>
+      </c>
+      <c r="F8" s="85">
+        <f t="shared" si="0"/>
+        <v>136.34733364794715</v>
+      </c>
+      <c r="G8" s="85">
+        <v>32</v>
+      </c>
+      <c r="H8" s="86">
+        <v>50</v>
+      </c>
+      <c r="I8" s="87">
+        <f t="shared" si="1"/>
+        <v>11.734736259172088</v>
+      </c>
+      <c r="J8" s="88">
+        <f t="shared" si="4"/>
+        <v>20.265263740827912</v>
+      </c>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="84">
+        <v>15.91</v>
+      </c>
+      <c r="C9" s="84">
+        <f t="shared" si="3"/>
+        <v>159.1</v>
+      </c>
+      <c r="D9" s="84">
+        <v>1524.2</v>
+      </c>
+      <c r="E9" s="84">
+        <v>10417.799999999999</v>
+      </c>
+      <c r="F9" s="85">
+        <f t="shared" si="0"/>
+        <v>146.30728176774369</v>
+      </c>
+      <c r="G9" s="85">
+        <v>32</v>
+      </c>
+      <c r="H9" s="86">
+        <v>50</v>
+      </c>
+      <c r="I9" s="87">
+        <f t="shared" si="1"/>
+        <v>10.935887678782311</v>
+      </c>
+      <c r="J9" s="88">
+        <f t="shared" si="4"/>
+        <v>21.064112321217689</v>
+      </c>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="84">
+        <v>18.43</v>
+      </c>
+      <c r="C10" s="84">
+        <f t="shared" si="3"/>
+        <v>184.3</v>
+      </c>
+      <c r="D10" s="84">
+        <v>608.1</v>
+      </c>
+      <c r="E10" s="84">
+        <v>10330.799999999999</v>
+      </c>
+      <c r="F10" s="85">
+        <f t="shared" si="0"/>
+        <v>58.862817981182488</v>
+      </c>
+      <c r="G10" s="85">
+        <v>32</v>
+      </c>
+      <c r="H10" s="86">
+        <v>50</v>
+      </c>
+      <c r="I10" s="87">
+        <f t="shared" si="1"/>
+        <v>27.181845091267881</v>
+      </c>
+      <c r="J10" s="88">
+        <f t="shared" si="4"/>
+        <v>4.8181549087321187</v>
+      </c>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="84">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="C11" s="84">
+        <f t="shared" si="3"/>
+        <v>202.39999999999998</v>
+      </c>
+      <c r="D11" s="84">
+        <v>726.2</v>
+      </c>
+      <c r="E11" s="84">
+        <v>10700</v>
+      </c>
+      <c r="F11" s="85">
+        <f t="shared" si="0"/>
+        <v>67.869158878504678</v>
+      </c>
+      <c r="G11" s="85">
+        <v>32</v>
+      </c>
+      <c r="H11" s="86">
+        <v>50</v>
+      </c>
+      <c r="I11" s="87">
+        <f t="shared" si="1"/>
+        <v>23.574772789865051</v>
+      </c>
+      <c r="J11" s="88">
+        <f t="shared" si="4"/>
+        <v>8.425227210134949</v>
+      </c>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="84">
+        <v>18.75</v>
+      </c>
+      <c r="C12" s="84">
+        <f t="shared" si="3"/>
+        <v>187.5</v>
+      </c>
+      <c r="D12" s="84">
+        <v>457.3</v>
+      </c>
+      <c r="E12" s="84">
+        <v>6133</v>
+      </c>
+      <c r="F12" s="85">
+        <f t="shared" si="0"/>
+        <v>74.563834991032124</v>
+      </c>
+      <c r="G12" s="85">
+        <v>48</v>
+      </c>
+      <c r="H12" s="86">
+        <v>50</v>
+      </c>
+      <c r="I12" s="87">
+        <f t="shared" si="1"/>
+        <v>32.187185654931113</v>
+      </c>
+      <c r="J12" s="88">
+        <f t="shared" si="4"/>
+        <v>15.812814345068887</v>
+      </c>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="84">
+        <v>21</v>
+      </c>
+      <c r="C13" s="84">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="D13" s="84">
+        <v>433.5</v>
+      </c>
+      <c r="E13" s="84">
+        <v>5818.8</v>
+      </c>
+      <c r="F13" s="85">
+        <f t="shared" si="0"/>
+        <v>74.499896885955863</v>
+      </c>
+      <c r="G13" s="85">
+        <v>48</v>
+      </c>
+      <c r="H13" s="86">
+        <v>50</v>
+      </c>
+      <c r="I13" s="87">
+        <f t="shared" si="1"/>
+        <v>32.214809688581319</v>
+      </c>
+      <c r="J13" s="88">
+        <f t="shared" si="4"/>
+        <v>15.785190311418681</v>
+      </c>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="84">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="C14" s="84">
+        <f t="shared" si="3"/>
+        <v>181.9</v>
+      </c>
+      <c r="D14" s="84">
+        <v>962.3</v>
+      </c>
+      <c r="E14" s="84">
+        <v>6231</v>
+      </c>
+      <c r="F14" s="85">
+        <f t="shared" si="0"/>
+        <v>154.43748996950728</v>
+      </c>
+      <c r="G14" s="85">
+        <v>48</v>
+      </c>
+      <c r="H14" s="86">
+        <v>50</v>
+      </c>
+      <c r="I14" s="87">
+        <f t="shared" si="1"/>
+        <v>15.540268107658736</v>
+      </c>
+      <c r="J14" s="88">
+        <f t="shared" si="4"/>
+        <v>32.459731892341267</v>
+      </c>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="84">
+        <v>21.23</v>
+      </c>
+      <c r="C15" s="84">
+        <f t="shared" si="3"/>
+        <v>212.3</v>
+      </c>
+      <c r="D15" s="84">
+        <v>892.3</v>
+      </c>
+      <c r="E15" s="84">
+        <v>5772.8</v>
+      </c>
+      <c r="F15" s="85">
+        <f t="shared" si="0"/>
+        <v>154.56970620842571</v>
+      </c>
+      <c r="G15" s="85">
+        <v>48</v>
+      </c>
+      <c r="H15" s="86">
+        <v>50</v>
+      </c>
+      <c r="I15" s="87">
+        <f t="shared" si="1"/>
+        <v>15.526975232545109</v>
+      </c>
+      <c r="J15" s="88">
+        <f t="shared" si="4"/>
+        <v>32.473024767454888</v>
+      </c>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="84">
+        <v>18.66</v>
+      </c>
+      <c r="C16" s="84">
+        <f t="shared" si="3"/>
+        <v>186.6</v>
+      </c>
+      <c r="D16" s="84">
+        <v>886.1</v>
+      </c>
+      <c r="E16" s="84">
+        <v>5843.8</v>
+      </c>
+      <c r="F16" s="85">
+        <f t="shared" si="0"/>
+        <v>151.63078818576952</v>
+      </c>
+      <c r="G16" s="85">
+        <v>48</v>
+      </c>
+      <c r="H16" s="86">
+        <v>50</v>
+      </c>
+      <c r="I16" s="87">
+        <f t="shared" si="1"/>
+        <v>15.827920099311592</v>
+      </c>
+      <c r="J16" s="88">
+        <f t="shared" si="4"/>
+        <v>32.172079900688409</v>
+      </c>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="84">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="C17" s="84">
+        <f t="shared" si="3"/>
+        <v>195.79999999999998</v>
+      </c>
+      <c r="D17" s="84">
+        <v>842.6</v>
+      </c>
+      <c r="E17" s="84">
+        <v>5794.8</v>
+      </c>
+      <c r="F17" s="85">
+        <f t="shared" si="0"/>
+        <v>145.40622627182992</v>
+      </c>
+      <c r="G17" s="85">
+        <v>48</v>
+      </c>
+      <c r="H17" s="86">
+        <v>50</v>
+      </c>
+      <c r="I17" s="87">
+        <f t="shared" si="1"/>
+        <v>16.505483028720626</v>
+      </c>
+      <c r="J17" s="88">
+        <f t="shared" si="4"/>
+        <v>31.494516971279374</v>
+      </c>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="84">
+        <v>18.79</v>
+      </c>
+      <c r="C18" s="84">
+        <f t="shared" si="3"/>
+        <v>187.89999999999998</v>
+      </c>
+      <c r="D18" s="84">
+        <v>903.3</v>
+      </c>
+      <c r="E18" s="84">
+        <v>5873.8</v>
+      </c>
+      <c r="F18" s="85">
+        <f t="shared" si="0"/>
+        <v>153.78460281248937</v>
+      </c>
+      <c r="G18" s="85">
+        <v>48</v>
+      </c>
+      <c r="H18" s="86">
+        <v>50</v>
+      </c>
+      <c r="I18" s="87">
+        <f t="shared" si="1"/>
+        <v>15.606243772832945</v>
+      </c>
+      <c r="J18" s="88">
+        <f t="shared" si="4"/>
+        <v>32.393756227167053</v>
+      </c>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="84">
+        <v>18.41</v>
+      </c>
+      <c r="C19" s="84">
+        <f t="shared" si="3"/>
+        <v>184.1</v>
+      </c>
+      <c r="D19" s="84">
+        <v>433</v>
+      </c>
+      <c r="E19" s="84">
+        <v>5765.8</v>
+      </c>
+      <c r="F19" s="85">
+        <f t="shared" si="0"/>
+        <v>75.097991605674835</v>
+      </c>
+      <c r="G19" s="85">
+        <v>48</v>
+      </c>
+      <c r="H19" s="86">
+        <v>50</v>
+      </c>
+      <c r="I19" s="87">
+        <f t="shared" si="1"/>
+        <v>31.958244803695152</v>
+      </c>
+      <c r="J19" s="88">
+        <f t="shared" si="4"/>
+        <v>16.041755196304848</v>
+      </c>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="101">
+        <v>21.56</v>
+      </c>
+      <c r="C20" s="84">
+        <f t="shared" si="3"/>
+        <v>215.6</v>
+      </c>
+      <c r="D20" s="101">
+        <v>414.9</v>
+      </c>
+      <c r="E20" s="101">
+        <v>6305.2</v>
+      </c>
+      <c r="F20" s="85">
+        <f t="shared" si="0"/>
+        <v>65.802829410645188</v>
+      </c>
+      <c r="G20" s="85">
+        <v>48</v>
+      </c>
+      <c r="H20" s="85">
+        <v>50</v>
+      </c>
+      <c r="I20" s="105">
+        <f t="shared" si="1"/>
+        <v>36.472595806218365</v>
+      </c>
+      <c r="J20" s="88">
+        <f t="shared" si="4"/>
+        <v>11.527404193781635</v>
+      </c>
+      <c r="K20" s="88"/>
+      <c r="L20" s="104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="84">
+        <v>10</v>
+      </c>
+      <c r="C21" s="84">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="84">
+        <v>767.5</v>
+      </c>
+      <c r="E21" s="84">
+        <v>4987.3599999999997</v>
+      </c>
+      <c r="F21" s="85">
+        <f t="shared" si="0"/>
+        <v>153.88903147156012</v>
+      </c>
+      <c r="G21" s="85">
+        <v>64</v>
+      </c>
+      <c r="H21" s="85">
+        <v>50</v>
+      </c>
+      <c r="I21" s="105">
+        <f t="shared" si="1"/>
+        <v>20.794204560260585</v>
+      </c>
+      <c r="J21" s="88">
+        <f t="shared" ref="J21:J23" si="5">G21-I21</f>
+        <v>43.205795439739418</v>
+      </c>
+      <c r="K21" s="88"/>
+      <c r="L21" s="104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="84">
+        <v>10</v>
+      </c>
+      <c r="C22" s="84">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D22" s="84">
+        <v>826.5</v>
+      </c>
+      <c r="E22" s="84">
+        <v>5206.8100000000004</v>
+      </c>
+      <c r="F22" s="85">
+        <f t="shared" si="0"/>
+        <v>158.73442664510515</v>
+      </c>
+      <c r="G22" s="85">
+        <v>64</v>
+      </c>
+      <c r="H22" s="85">
+        <v>50</v>
+      </c>
+      <c r="I22" s="105">
+        <f t="shared" si="1"/>
+        <v>20.159457955232913</v>
+      </c>
+      <c r="J22" s="88">
+        <f t="shared" si="5"/>
+        <v>43.840542044767091</v>
+      </c>
+      <c r="K22" s="88"/>
+      <c r="L22" s="104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="91">
+        <v>10</v>
+      </c>
+      <c r="C23" s="91">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D23" s="91">
+        <v>1073</v>
+      </c>
+      <c r="E23" s="91">
+        <v>6218.44</v>
+      </c>
+      <c r="F23" s="92">
+        <f t="shared" si="0"/>
+        <v>172.55131512083418</v>
+      </c>
+      <c r="G23" s="92">
+        <v>64</v>
+      </c>
+      <c r="H23" s="92">
+        <v>50</v>
+      </c>
+      <c r="I23" s="106">
+        <f t="shared" si="1"/>
+        <v>18.545207828518173</v>
+      </c>
+      <c r="J23" s="93">
+        <f t="shared" si="5"/>
+        <v>45.454792171481827</v>
+      </c>
+      <c r="K23" s="93"/>
+      <c r="L23" s="94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78">
-        <v>11347.4</v>
-      </c>
-      <c r="E3" s="79">
-        <f t="shared" ref="E3:E23" si="0">((C3/1000)*1000000)/D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="79">
-        <v>32</v>
-      </c>
-      <c r="G3" s="79">
-        <v>50</v>
-      </c>
-      <c r="H3" s="80" t="e">
-        <f>(G3*F3)/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="81" t="e">
-        <f>F3-H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82">
-        <f>((J3/1000)*1000000)/D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84">
-        <v>10679</v>
-      </c>
-      <c r="E4" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="85">
-        <v>32</v>
-      </c>
-      <c r="G4" s="86">
-        <v>50</v>
-      </c>
-      <c r="H4" s="87" t="e">
-        <f t="shared" ref="H4:H19" si="1">(G4*F4)/E4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="88" t="e">
-        <f t="shared" ref="I4:I20" si="2">F4-H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89">
-        <f t="shared" ref="K4:K20" si="3">((J4/1000)*1000000)/D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84">
-        <v>11256.4</v>
-      </c>
-      <c r="E5" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="85">
-        <v>32</v>
-      </c>
-      <c r="G5" s="86">
-        <v>50</v>
-      </c>
-      <c r="H5" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84">
-        <v>10293.799999999999</v>
-      </c>
-      <c r="E6" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="85">
-        <v>32</v>
-      </c>
-      <c r="G6" s="86">
-        <v>50</v>
-      </c>
-      <c r="H6" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84">
-        <v>11441.4</v>
-      </c>
-      <c r="E7" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="85">
-        <v>32</v>
-      </c>
-      <c r="G7" s="86">
-        <v>50</v>
-      </c>
-      <c r="H7" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84">
-        <v>10596</v>
-      </c>
-      <c r="E8" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="85">
-        <v>32</v>
-      </c>
-      <c r="G8" s="86">
-        <v>50</v>
-      </c>
-      <c r="H8" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84">
-        <v>10418.799999999999</v>
-      </c>
-      <c r="E9" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="85">
-        <v>32</v>
-      </c>
-      <c r="G9" s="86">
-        <v>50</v>
-      </c>
-      <c r="H9" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84">
-        <v>10331.799999999999</v>
-      </c>
-      <c r="E10" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="85">
-        <v>32</v>
-      </c>
-      <c r="G10" s="86">
-        <v>50</v>
-      </c>
-      <c r="H10" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84">
-        <v>10701</v>
-      </c>
-      <c r="E11" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="85">
-        <v>32</v>
-      </c>
-      <c r="G11" s="86">
-        <v>50</v>
-      </c>
-      <c r="H11" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84">
-        <v>6134</v>
-      </c>
-      <c r="E12" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="85">
-        <v>48</v>
-      </c>
-      <c r="G12" s="86">
-        <v>50</v>
-      </c>
-      <c r="H12" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84">
-        <v>5819.8</v>
-      </c>
-      <c r="E13" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="85">
-        <v>48</v>
-      </c>
-      <c r="G13" s="86">
-        <v>50</v>
-      </c>
-      <c r="H13" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84">
-        <v>6232</v>
-      </c>
-      <c r="E14" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="85">
-        <v>48</v>
-      </c>
-      <c r="G14" s="86">
-        <v>50</v>
-      </c>
-      <c r="H14" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84">
-        <v>5773.8</v>
-      </c>
-      <c r="E15" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="85">
-        <v>48</v>
-      </c>
-      <c r="G15" s="86">
-        <v>50</v>
-      </c>
-      <c r="H15" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84">
-        <v>5844.8</v>
-      </c>
-      <c r="E16" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="85">
-        <v>48</v>
-      </c>
-      <c r="G16" s="86">
-        <v>50</v>
-      </c>
-      <c r="H16" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84">
-        <v>5795.8</v>
-      </c>
-      <c r="E17" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="85">
-        <v>48</v>
-      </c>
-      <c r="G17" s="86">
-        <v>50</v>
-      </c>
-      <c r="H17" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84">
-        <v>5874.8</v>
-      </c>
-      <c r="E18" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="85">
-        <v>48</v>
-      </c>
-      <c r="G18" s="86">
-        <v>50</v>
-      </c>
-      <c r="H18" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84">
-        <v>5766.8</v>
-      </c>
-      <c r="E19" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="85">
-        <v>48</v>
-      </c>
-      <c r="G19" s="86">
-        <v>50</v>
-      </c>
-      <c r="H19" s="87" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101">
-        <v>6306.2</v>
-      </c>
-      <c r="E20" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="85">
-        <v>48</v>
-      </c>
-      <c r="G20" s="85">
-        <v>50</v>
-      </c>
-      <c r="H20" s="105" t="e">
-        <f>(G20*F20)/E20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="88" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84">
-        <v>4987.5</v>
-      </c>
-      <c r="E21" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="85">
-        <v>64</v>
-      </c>
-      <c r="G21" s="85">
-        <v>50</v>
-      </c>
-      <c r="H21" s="105" t="e">
-        <f t="shared" ref="H21:H23" si="4">(G21*F21)/E21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="88" t="e">
-        <f t="shared" ref="I21:I23" si="5">F21-H21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="104">
-        <f t="shared" ref="K21:K23" si="6">((J21/1000)*1000000)/D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="85">
-        <v>64</v>
-      </c>
-      <c r="G22" s="85">
-        <v>50</v>
-      </c>
-      <c r="H22" s="105" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="88" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="88"/>
-      <c r="K22" s="104" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="92">
-        <v>64</v>
-      </c>
-      <c r="G23" s="92">
-        <v>50</v>
-      </c>
-      <c r="H23" s="106" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="93" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="95" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="95" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="2"/>
 </worksheet>
 </file>
 
@@ -3260,7 +3450,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3380,10 +3570,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3454,14 +3647,14 @@
       <c r="C3" s="60">
         <v>1</v>
       </c>
-      <c r="D3" s="145">
+      <c r="D3" s="147">
         <f>E3-SUM(C3:C11)</f>
         <v>38</v>
       </c>
-      <c r="E3" s="147">
+      <c r="E3" s="149">
         <v>50</v>
       </c>
-      <c r="F3" s="149">
+      <c r="F3" s="151">
         <v>1</v>
       </c>
       <c r="H3" s="54" t="s">
@@ -3474,14 +3667,14 @@
         <f>C3*2</f>
         <v>2</v>
       </c>
-      <c r="K3" s="145">
+      <c r="K3" s="147">
         <f>L3-SUM(J3:J11)</f>
         <v>76</v>
       </c>
-      <c r="L3" s="147">
+      <c r="L3" s="149">
         <v>100</v>
       </c>
-      <c r="M3" s="149">
+      <c r="M3" s="151">
         <v>1</v>
       </c>
     </row>
@@ -3495,9 +3688,9 @@
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="150"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="152"/>
       <c r="H4" s="45" t="s">
         <v>5</v>
       </c>
@@ -3508,9 +3701,9 @@
         <f t="shared" ref="J4:J28" si="0">C4*2</f>
         <v>4</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="150"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="152"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
@@ -3522,9 +3715,9 @@
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="150"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="152"/>
       <c r="H5" s="45" t="s">
         <v>6</v>
       </c>
@@ -3535,9 +3728,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="150"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="152"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
@@ -3549,9 +3742,9 @@
       <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="150"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="152"/>
       <c r="H6" s="45" t="s">
         <v>7</v>
       </c>
@@ -3562,9 +3755,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K6" s="145"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="150"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="152"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
@@ -3576,9 +3769,9 @@
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="150"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="152"/>
       <c r="H7" s="45" t="s">
         <v>8</v>
       </c>
@@ -3589,9 +3782,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K7" s="145"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="150"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="152"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
@@ -3603,9 +3796,9 @@
       <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="150"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="152"/>
       <c r="H8" s="45" t="s">
         <v>9</v>
       </c>
@@ -3616,9 +3809,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K8" s="145"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="150"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="152"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
@@ -3630,9 +3823,9 @@
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="150"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="152"/>
       <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
@@ -3643,9 +3836,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="150"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="152"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
@@ -3657,9 +3850,9 @@
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="150"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="152"/>
       <c r="H10" s="45" t="s">
         <v>11</v>
       </c>
@@ -3670,9 +3863,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="150"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="152"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
@@ -3684,9 +3877,9 @@
       <c r="C11" s="66">
         <v>1</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="152"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="154"/>
       <c r="H11" s="64" t="s">
         <v>12</v>
       </c>
@@ -3697,9 +3890,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="152"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="154"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="s">
@@ -3711,14 +3904,14 @@
       <c r="C12" s="69">
         <v>1</v>
       </c>
-      <c r="D12" s="153">
+      <c r="D12" s="155">
         <f>E12-SUM(C12:C20)</f>
         <v>38</v>
       </c>
-      <c r="E12" s="154">
+      <c r="E12" s="156">
         <v>50</v>
       </c>
-      <c r="F12" s="155">
+      <c r="F12" s="157">
         <v>2</v>
       </c>
       <c r="H12" s="67" t="s">
@@ -3731,14 +3924,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K12" s="153">
+      <c r="K12" s="155">
         <f t="shared" ref="K12" si="1">D12*2</f>
         <v>76</v>
       </c>
-      <c r="L12" s="154">
+      <c r="L12" s="156">
         <v>100</v>
       </c>
-      <c r="M12" s="155">
+      <c r="M12" s="157">
         <v>2</v>
       </c>
     </row>
@@ -3752,9 +3945,9 @@
       <c r="C13" s="12">
         <v>2</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="150"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="152"/>
       <c r="H13" s="45" t="s">
         <v>14</v>
       </c>
@@ -3765,9 +3958,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="150"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="152"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
@@ -3779,9 +3972,9 @@
       <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="150"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="152"/>
       <c r="H14" s="45" t="s">
         <v>15</v>
       </c>
@@ -3792,9 +3985,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K14" s="145"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="150"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="152"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
@@ -3806,9 +3999,9 @@
       <c r="C15" s="12">
         <v>2</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="150"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="152"/>
       <c r="H15" s="45" t="s">
         <v>16</v>
       </c>
@@ -3819,9 +4012,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="150"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="152"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
@@ -3833,9 +4026,9 @@
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="152"/>
       <c r="H16" s="45" t="s">
         <v>17</v>
       </c>
@@ -3846,9 +4039,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="145"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="150"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="152"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
@@ -3860,9 +4053,9 @@
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="150"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="152"/>
       <c r="H17" s="45" t="s">
         <v>18</v>
       </c>
@@ -3873,9 +4066,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K17" s="145"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="150"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="152"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
@@ -3887,9 +4080,9 @@
       <c r="C18" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="150"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="152"/>
       <c r="H18" s="45" t="s">
         <v>10</v>
       </c>
@@ -3900,9 +4093,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K18" s="145"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="150"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="152"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
@@ -3914,9 +4107,9 @@
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="150"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="152"/>
       <c r="H19" s="45" t="s">
         <v>11</v>
       </c>
@@ -3927,9 +4120,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K19" s="145"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="150"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="152"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
@@ -3941,9 +4134,9 @@
       <c r="C20" s="72">
         <v>1</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="151"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="153"/>
       <c r="H20" s="70" t="s">
         <v>12</v>
       </c>
@@ -3954,9 +4147,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K20" s="146"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="151"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="153"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
@@ -3968,13 +4161,13 @@
       <c r="C21" s="60">
         <v>1</v>
       </c>
-      <c r="D21" s="145">
+      <c r="D21" s="147">
         <v>38</v>
       </c>
-      <c r="E21" s="147">
+      <c r="E21" s="149">
         <v>50</v>
       </c>
-      <c r="F21" s="149">
+      <c r="F21" s="151">
         <v>3</v>
       </c>
       <c r="H21" s="54" t="s">
@@ -3986,14 +4179,14 @@
       <c r="J21" s="60">
         <v>2</v>
       </c>
-      <c r="K21" s="145">
+      <c r="K21" s="147">
         <f>L21-SUM(J21:J29)</f>
         <v>76</v>
       </c>
-      <c r="L21" s="147">
+      <c r="L21" s="149">
         <v>100</v>
       </c>
-      <c r="M21" s="149">
+      <c r="M21" s="151">
         <v>3</v>
       </c>
     </row>
@@ -4007,9 +4200,9 @@
       <c r="C22" s="12">
         <v>2</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="150"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="152"/>
       <c r="H22" s="45" t="s">
         <v>20</v>
       </c>
@@ -4019,9 +4212,9 @@
       <c r="J22" s="12">
         <v>4</v>
       </c>
-      <c r="K22" s="145"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="150"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="152"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
@@ -4033,9 +4226,9 @@
       <c r="C23" s="61">
         <v>1</v>
       </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="150"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="152"/>
       <c r="H23" s="51" t="s">
         <v>21</v>
       </c>
@@ -4046,9 +4239,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K23" s="145"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="150"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="152"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
@@ -4060,9 +4253,9 @@
       <c r="C24" s="61">
         <v>2</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="150"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="152"/>
       <c r="H24" s="51" t="s">
         <v>22</v>
       </c>
@@ -4073,9 +4266,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K24" s="145"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="150"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="152"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
@@ -4087,9 +4280,9 @@
       <c r="C25" s="61">
         <v>1</v>
       </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="150"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="152"/>
       <c r="H25" s="51" t="s">
         <v>23</v>
       </c>
@@ -4100,9 +4293,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K25" s="145"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="150"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="152"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="51" t="s">
@@ -4114,9 +4307,9 @@
       <c r="C26" s="61">
         <v>2</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="150"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="152"/>
       <c r="H26" s="51" t="s">
         <v>24</v>
       </c>
@@ -4127,9 +4320,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K26" s="145"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="150"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="152"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
@@ -4141,9 +4334,9 @@
       <c r="C27" s="61">
         <v>1</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="150"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="152"/>
       <c r="H27" s="51" t="s">
         <v>10</v>
       </c>
@@ -4154,9 +4347,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K27" s="145"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="150"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="152"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="51" t="s">
@@ -4168,9 +4361,9 @@
       <c r="C28" s="61">
         <v>1</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="150"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="152"/>
       <c r="H28" s="51" t="s">
         <v>11</v>
       </c>
@@ -4181,9 +4374,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K28" s="145"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="150"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="152"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -4195,9 +4388,9 @@
       <c r="C29" s="62">
         <v>1</v>
       </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="151"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="153"/>
       <c r="H29" s="52" t="s">
         <v>12</v>
       </c>
@@ -4207,9 +4400,9 @@
       <c r="J29" s="62">
         <v>2</v>
       </c>
-      <c r="K29" s="146"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="151"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4234,7 +4427,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="13" max="1048575" man="1"/>
   </colBreaks>
@@ -4246,7 +4439,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4260,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4778,10 +4971,10 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="N16" s="45" t="s">
@@ -4892,10 +5085,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4911,7 +5104,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5265,8 +5458,8 @@
         <f>L7</f>
         <v>29</v>
       </c>
-      <c r="M8" s="38" t="s">
-        <v>12</v>
+      <c r="M8" s="159" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5317,8 +5510,8 @@
         <f>L7</f>
         <v>29</v>
       </c>
-      <c r="M9" s="38" t="s">
-        <v>12</v>
+      <c r="M9" s="159" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5369,8 +5562,8 @@
         <f>L7+1</f>
         <v>30</v>
       </c>
-      <c r="M10" s="41" t="s">
-        <v>12</v>
+      <c r="M10" s="160" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5382,7 +5575,7 @@
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12"/>
       <c r="K12"/>
@@ -5432,40 +5625,40 @@
         <v>10</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" s="109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M14" s="110" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -5473,40 +5666,40 @@
         <v>11</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L15" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M15" s="113" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -5514,40 +5707,40 @@
         <v>12</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L16" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M16" s="113" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -5555,40 +5748,40 @@
         <v>37</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L17" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M17" s="113" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -5596,40 +5789,40 @@
         <v>38</v>
       </c>
       <c r="B18" s="111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L18" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M18" s="113" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -5637,40 +5830,40 @@
         <v>39</v>
       </c>
       <c r="B19" s="111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L19" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M19" s="113" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -5678,40 +5871,40 @@
         <v>40</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L20" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M20" s="113" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5719,40 +5912,40 @@
         <v>41</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L21" s="115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M21" s="116" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -5773,7 +5966,7 @@
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23"/>
       <c r="K23"/>
@@ -6154,7 +6347,7 @@
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D34"/>
       <c r="K34"/>
@@ -6204,40 +6397,40 @@
         <v>10</v>
       </c>
       <c r="B36" s="34">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L36" s="35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M36" s="36">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -6245,40 +6438,40 @@
         <v>11</v>
       </c>
       <c r="B37" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L37" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M37" s="38">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -6286,40 +6479,40 @@
         <v>12</v>
       </c>
       <c r="B38" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L38" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M38" s="38">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -6327,40 +6520,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L39" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M39" s="38">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -6368,40 +6561,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L40" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M40" s="38">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -6409,40 +6602,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L41" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M41" s="38">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -6450,40 +6643,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="37">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L42" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M42" s="38">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6491,41 +6684,203 @@
         <v>41</v>
       </c>
       <c r="B43" s="39">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L43" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M43" s="41">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="D46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="D47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="D48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="D49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="D50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="D51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="D52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="D53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="D54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="D55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="D56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="D57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="D58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="D59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="D60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="D61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="D62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="D63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="D64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="D65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="D66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="D67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="D68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+      <c r="D69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+      <c r="D70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="D71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+      <c r="D72"/>
+      <c r="K72"/>
+      <c r="L72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/microsat_PCR_templates.xlsx
+++ b/microsat_PCR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="5"/>
+    <workbookView xWindow="2040" yWindow="2180" windowWidth="19200" windowHeight="15540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Primer Sequences" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="169">
   <si>
     <t>Total Vol</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Full Plate (µl)</t>
   </si>
   <si>
-    <t>M.cav Microsat Dilution Plate  1 Layout</t>
-  </si>
-  <si>
     <t>Locus</t>
   </si>
   <si>
@@ -508,15 +505,6 @@
     <t>TAIL_C</t>
   </si>
   <si>
-    <t>Plate 1 Dilutions (µL PCR product)</t>
-  </si>
-  <si>
-    <t>Plate 1 Dilutions (µL nfw)</t>
-  </si>
-  <si>
-    <t>Plate 1 Dilutions (µL PCR product:nfw)</t>
-  </si>
-  <si>
     <t>Aliquot 7.5 µL for each Tail</t>
   </si>
   <si>
@@ -526,16 +514,31 @@
     <t>Aliquot 5.5µL for each reverse primer (need 4ul per run)</t>
   </si>
   <si>
-    <t>M.cav microsat Plate 3 layout</t>
-  </si>
-  <si>
-    <t>1:20</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>– C</t>
+  </si>
+  <si>
+    <t>Template Dilution Plate 2 layout</t>
+  </si>
+  <si>
+    <t>M.cav microsat Plate 6 layout</t>
+  </si>
+  <si>
+    <t>M.cav Microsat Dilution Plate 4 Layout</t>
+  </si>
+  <si>
+    <t>M.cav Microsat Dilution Plate 3 Layout</t>
+  </si>
+  <si>
+    <t>M.cav Microsat Dilution Plate 5 Layout</t>
+  </si>
+  <si>
+    <t>M.cav Microsat Dilution Plate 6 Layout</t>
+  </si>
+  <si>
+    <t>M.cav Microsat Dilution Plate 1 Layout</t>
+  </si>
+  <si>
+    <t>M.cav Microsat Dilution Plate 2 Layout</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,8 +638,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE377"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEEE69"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE09690"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77DFD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CD9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB1F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1237,8 +1276,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1246,8 +1322,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1522,15 +1600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1540,87 +1609,87 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,24 +1726,242 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF77DFD8"/>
+      <color rgb="FFCEEE69"/>
+      <color rgb="FFFFE377"/>
+      <color rgb="FFFBB1F9"/>
+      <color rgb="FF9CD9F1"/>
+      <color rgb="FFE09690"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1968,476 +2255,493 @@
   <sheetData>
     <row r="1" spans="1:10" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="C1" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="D1" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="F1" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="G1" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="H1" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="I1" s="98" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="98" t="s">
-        <v>66</v>
       </c>
       <c r="J1" s="99" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="C2" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="D2" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="G2" s="128">
+        <v>18</v>
+      </c>
+      <c r="H2" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="134"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E3" s="112"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="134" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="122">
+        <v>15</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="125"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="134"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="112"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="125"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="122">
+        <v>15</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="135"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="113"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="130">
+      <c r="F8" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="127">
         <v>18</v>
       </c>
-      <c r="H2" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="123"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="135"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="H8" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="134"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="112"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="143" t="s">
+      <c r="G10" s="122">
+        <v>15</v>
+      </c>
+      <c r="H10" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="134"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="112"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="122">
+        <v>15</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="125"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="137"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="130"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="128">
+        <v>18</v>
+      </c>
+      <c r="H14" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="134"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="112"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="125"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="131">
+      <c r="F16" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="122">
         <v>15</v>
       </c>
-      <c r="H4" s="131" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="131" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="135"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="123"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="135"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="84" t="s">
+      <c r="H16" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="125"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="134"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="112"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="125"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="131">
+      <c r="G18" s="122">
         <v>15</v>
       </c>
-      <c r="H6" s="131" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="135"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="140"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="133">
-        <v>18</v>
-      </c>
-      <c r="H8" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="123"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="135"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="131">
-        <v>15</v>
-      </c>
-      <c r="H10" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="135"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="123"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="135"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="131">
-        <v>15</v>
-      </c>
-      <c r="H12" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="131" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="135"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="144"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="136"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="142" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="130">
-        <v>18</v>
-      </c>
-      <c r="H14" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="135"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="131">
-        <v>15</v>
-      </c>
-      <c r="H16" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="131" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="135"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="135"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="84" t="s">
+      <c r="H18" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="I18" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="125"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="137"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="131">
-        <v>15</v>
-      </c>
-      <c r="H18" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="131" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="135"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="136"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
@@ -2451,41 +2755,24 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2498,15 +2785,15 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -2521,50 +2808,50 @@
     </row>
     <row r="2" spans="1:12" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="75" t="s">
+      <c r="E2" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="G2" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="I2" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="J2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="K2" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="L2" s="76" t="s">
         <v>151</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="78">
         <v>16</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="109">
         <f>B3*10</f>
         <v>160</v>
       </c>
@@ -2592,15 +2879,17 @@
         <f>G3-I3</f>
         <v>10.892872921753284</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="81">
+        <v>577.79999999999995</v>
+      </c>
       <c r="L3" s="82">
         <f t="shared" ref="L3:L23" si="2">((K3/1000)*1000000)/E3</f>
-        <v>0</v>
+        <v>50.923640978636399</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="84">
         <v>19.62</v>
@@ -2633,15 +2922,17 @@
         <f t="shared" ref="J4:J20" si="4">G4-I4</f>
         <v>11.288641047399683</v>
       </c>
-      <c r="K4" s="88"/>
+      <c r="K4" s="88">
+        <v>535.79999999999995</v>
+      </c>
       <c r="L4" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.177935943060497</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="84">
         <v>18.62</v>
@@ -2674,15 +2965,17 @@
         <f t="shared" si="4"/>
         <v>21.249214972240459</v>
       </c>
-      <c r="K5" s="88"/>
+      <c r="K5" s="88">
+        <v>572.6</v>
+      </c>
       <c r="L5" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.873358565666258</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="84">
         <v>17.41</v>
@@ -2715,15 +3008,17 @@
         <f t="shared" si="4"/>
         <v>21.233472803347279</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="119">
+      <c r="K6" s="88">
+        <v>516.74</v>
+      </c>
+      <c r="L6" s="110">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.204026115342771</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="84">
         <v>16.3</v>
@@ -2756,15 +3051,17 @@
         <f t="shared" si="4"/>
         <v>21.661316012425868</v>
       </c>
-      <c r="K7" s="88"/>
+      <c r="K7" s="88">
+        <v>564.29999999999995</v>
+      </c>
       <c r="L7" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49.325198419635669</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="84">
         <v>21.62</v>
@@ -2797,15 +3094,17 @@
         <f t="shared" si="4"/>
         <v>20.265263740827912</v>
       </c>
-      <c r="K8" s="88"/>
+      <c r="K8" s="88">
+        <v>543.1</v>
+      </c>
       <c r="L8" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51.260028315243041</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="84">
         <v>15.91</v>
@@ -2838,15 +3137,17 @@
         <f t="shared" si="4"/>
         <v>21.064112321217689</v>
       </c>
-      <c r="K9" s="88"/>
+      <c r="K9" s="88">
+        <v>518.70000000000005</v>
+      </c>
       <c r="L9" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49.789782871623579</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="84">
         <v>18.43</v>
@@ -2879,15 +3180,17 @@
         <f t="shared" si="4"/>
         <v>4.8181549087321187</v>
       </c>
-      <c r="K10" s="88"/>
+      <c r="K10" s="88">
+        <v>516.4</v>
+      </c>
       <c r="L10" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49.986448290548651</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="84">
         <v>20.239999999999998</v>
@@ -2920,15 +3223,17 @@
         <f t="shared" si="4"/>
         <v>8.425227210134949</v>
       </c>
-      <c r="K11" s="88"/>
+      <c r="K11" s="88">
+        <v>526.5</v>
+      </c>
       <c r="L11" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49.205607476635514</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="84">
         <v>18.75</v>
@@ -2961,15 +3266,17 @@
         <f t="shared" si="4"/>
         <v>15.812814345068887</v>
       </c>
-      <c r="K12" s="88"/>
+      <c r="K12" s="88">
+        <v>308</v>
+      </c>
       <c r="L12" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.220120658731453</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="84">
         <v>21</v>
@@ -3002,15 +3309,17 @@
         <f t="shared" si="4"/>
         <v>15.785190311418681</v>
       </c>
-      <c r="K13" s="88"/>
+      <c r="K13" s="88">
+        <v>293.10000000000002</v>
+      </c>
       <c r="L13" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.371210558878118</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="84">
         <v>18.190000000000001</v>
@@ -3043,15 +3352,17 @@
         <f t="shared" si="4"/>
         <v>32.459731892341267</v>
       </c>
-      <c r="K14" s="88"/>
+      <c r="K14" s="88">
+        <v>320.7</v>
+      </c>
       <c r="L14" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51.468464130958111</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="84">
         <v>21.23</v>
@@ -3084,15 +3395,17 @@
         <f t="shared" si="4"/>
         <v>32.473024767454888</v>
       </c>
-      <c r="K15" s="88"/>
+      <c r="K15" s="88">
+        <v>296.3</v>
+      </c>
       <c r="L15" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51.326912416851442</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="84">
         <v>18.66</v>
@@ -3125,15 +3438,17 @@
         <f t="shared" si="4"/>
         <v>32.172079900688409</v>
       </c>
-      <c r="K16" s="88"/>
+      <c r="K16" s="88">
+        <v>297.39999999999998</v>
+      </c>
       <c r="L16" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.891543173962148</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="84">
         <v>19.579999999999998</v>
@@ -3166,15 +3481,17 @@
         <f t="shared" si="4"/>
         <v>31.494516971279374</v>
       </c>
-      <c r="K17" s="88"/>
+      <c r="K17" s="88">
+        <v>294.5</v>
+      </c>
       <c r="L17" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.821426106164147</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="84">
         <v>18.79</v>
@@ -3207,15 +3524,17 @@
         <f t="shared" si="4"/>
         <v>32.393756227167053</v>
       </c>
-      <c r="K18" s="88"/>
+      <c r="K18" s="88">
+        <v>300.39999999999998</v>
+      </c>
       <c r="L18" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51.142360992883653</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="84">
         <v>18.41</v>
@@ -3248,15 +3567,17 @@
         <f t="shared" si="4"/>
         <v>16.041755196304848</v>
       </c>
-      <c r="K19" s="88"/>
+      <c r="K19" s="88">
+        <v>292.8</v>
+      </c>
       <c r="L19" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.782198480696522</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="101">
         <v>21.56</v>
@@ -3289,15 +3610,17 @@
         <f t="shared" si="4"/>
         <v>11.527404193781635</v>
       </c>
-      <c r="K20" s="88"/>
+      <c r="K20" s="88">
+        <v>315.89999999999998</v>
+      </c>
       <c r="L20" s="104">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.101503520903371</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="84">
         <v>10</v>
@@ -3330,15 +3653,17 @@
         <f t="shared" ref="J21:J23" si="5">G21-I21</f>
         <v>43.205795439739418</v>
       </c>
-      <c r="K21" s="88"/>
+      <c r="K21" s="88">
+        <v>260.2</v>
+      </c>
       <c r="L21" s="104">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52.171890539283311</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="84">
         <v>10</v>
@@ -3371,15 +3696,17 @@
         <f t="shared" si="5"/>
         <v>43.840542044767091</v>
       </c>
-      <c r="K22" s="88"/>
+      <c r="K22" s="88">
+        <v>263.5</v>
+      </c>
       <c r="L22" s="104">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.606801477296074</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="91">
         <v>10</v>
@@ -3412,30 +3739,32 @@
         <f t="shared" si="5"/>
         <v>45.454792171481827</v>
       </c>
-      <c r="K23" s="93"/>
+      <c r="K23" s="93">
+        <v>315.39999999999998</v>
+      </c>
       <c r="L23" s="94">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50.72011629926476</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
-        <v>153</v>
+      <c r="A25" s="108" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="95" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3779,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3576,7 +3905,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3647,14 +3976,14 @@
       <c r="C3" s="60">
         <v>1</v>
       </c>
-      <c r="D3" s="147">
+      <c r="D3" s="138">
         <f>E3-SUM(C3:C11)</f>
         <v>38</v>
       </c>
-      <c r="E3" s="149">
+      <c r="E3" s="140">
         <v>50</v>
       </c>
-      <c r="F3" s="151">
+      <c r="F3" s="142">
         <v>1</v>
       </c>
       <c r="H3" s="54" t="s">
@@ -3667,14 +3996,14 @@
         <f>C3*2</f>
         <v>2</v>
       </c>
-      <c r="K3" s="147">
+      <c r="K3" s="138">
         <f>L3-SUM(J3:J11)</f>
         <v>76</v>
       </c>
-      <c r="L3" s="149">
+      <c r="L3" s="140">
         <v>100</v>
       </c>
-      <c r="M3" s="151">
+      <c r="M3" s="142">
         <v>1</v>
       </c>
     </row>
@@ -3688,9 +4017,9 @@
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="152"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="143"/>
       <c r="H4" s="45" t="s">
         <v>5</v>
       </c>
@@ -3701,9 +4030,9 @@
         <f t="shared" ref="J4:J28" si="0">C4*2</f>
         <v>4</v>
       </c>
-      <c r="K4" s="147"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="152"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="143"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
@@ -3715,9 +4044,9 @@
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="152"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="143"/>
       <c r="H5" s="45" t="s">
         <v>6</v>
       </c>
@@ -3728,9 +4057,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="152"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="143"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
@@ -3742,9 +4071,9 @@
       <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="152"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="143"/>
       <c r="H6" s="45" t="s">
         <v>7</v>
       </c>
@@ -3755,9 +4084,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K6" s="147"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="152"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="143"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
@@ -3769,9 +4098,9 @@
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="152"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="143"/>
       <c r="H7" s="45" t="s">
         <v>8</v>
       </c>
@@ -3782,9 +4111,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="152"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="143"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
@@ -3796,9 +4125,9 @@
       <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="152"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="143"/>
       <c r="H8" s="45" t="s">
         <v>9</v>
       </c>
@@ -3809,9 +4138,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="152"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="143"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
@@ -3823,9 +4152,9 @@
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="152"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="143"/>
       <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
@@ -3836,9 +4165,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="152"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
@@ -3850,9 +4179,9 @@
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="152"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="143"/>
       <c r="H10" s="45" t="s">
         <v>11</v>
       </c>
@@ -3863,9 +4192,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="152"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="143"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
@@ -3877,9 +4206,9 @@
       <c r="C11" s="66">
         <v>1</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="154"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="145"/>
       <c r="H11" s="64" t="s">
         <v>12</v>
       </c>
@@ -3890,9 +4219,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="147"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="154"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="145"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="s">
@@ -3904,14 +4233,14 @@
       <c r="C12" s="69">
         <v>1</v>
       </c>
-      <c r="D12" s="155">
+      <c r="D12" s="146">
         <f>E12-SUM(C12:C20)</f>
         <v>38</v>
       </c>
-      <c r="E12" s="156">
+      <c r="E12" s="147">
         <v>50</v>
       </c>
-      <c r="F12" s="157">
+      <c r="F12" s="148">
         <v>2</v>
       </c>
       <c r="H12" s="67" t="s">
@@ -3924,14 +4253,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K12" s="155">
+      <c r="K12" s="146">
         <f t="shared" ref="K12" si="1">D12*2</f>
         <v>76</v>
       </c>
-      <c r="L12" s="156">
+      <c r="L12" s="147">
         <v>100</v>
       </c>
-      <c r="M12" s="157">
+      <c r="M12" s="148">
         <v>2</v>
       </c>
     </row>
@@ -3945,9 +4274,9 @@
       <c r="C13" s="12">
         <v>2</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="152"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="143"/>
       <c r="H13" s="45" t="s">
         <v>14</v>
       </c>
@@ -3958,9 +4287,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="147"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="152"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="143"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
@@ -3972,9 +4301,9 @@
       <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="152"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="143"/>
       <c r="H14" s="45" t="s">
         <v>15</v>
       </c>
@@ -3985,9 +4314,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K14" s="147"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="152"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="143"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
@@ -3999,9 +4328,9 @@
       <c r="C15" s="12">
         <v>2</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="152"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="143"/>
       <c r="H15" s="45" t="s">
         <v>16</v>
       </c>
@@ -4012,9 +4341,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="147"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="152"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="143"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
@@ -4026,9 +4355,9 @@
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="152"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="143"/>
       <c r="H16" s="45" t="s">
         <v>17</v>
       </c>
@@ -4039,9 +4368,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="147"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="152"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="143"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
@@ -4053,9 +4382,9 @@
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="152"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="143"/>
       <c r="H17" s="45" t="s">
         <v>18</v>
       </c>
@@ -4066,9 +4395,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K17" s="147"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="152"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="143"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
@@ -4080,9 +4409,9 @@
       <c r="C18" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="152"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="143"/>
       <c r="H18" s="45" t="s">
         <v>10</v>
       </c>
@@ -4093,9 +4422,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K18" s="147"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="152"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="143"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
@@ -4107,9 +4436,9 @@
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="152"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="143"/>
       <c r="H19" s="45" t="s">
         <v>11</v>
       </c>
@@ -4120,9 +4449,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K19" s="147"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="152"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="143"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
@@ -4134,9 +4463,9 @@
       <c r="C20" s="72">
         <v>1</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="153"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="144"/>
       <c r="H20" s="70" t="s">
         <v>12</v>
       </c>
@@ -4147,9 +4476,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K20" s="148"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="153"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="144"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
@@ -4161,13 +4490,13 @@
       <c r="C21" s="60">
         <v>1</v>
       </c>
-      <c r="D21" s="147">
+      <c r="D21" s="138">
         <v>38</v>
       </c>
-      <c r="E21" s="149">
+      <c r="E21" s="140">
         <v>50</v>
       </c>
-      <c r="F21" s="151">
+      <c r="F21" s="142">
         <v>3</v>
       </c>
       <c r="H21" s="54" t="s">
@@ -4179,14 +4508,14 @@
       <c r="J21" s="60">
         <v>2</v>
       </c>
-      <c r="K21" s="147">
+      <c r="K21" s="138">
         <f>L21-SUM(J21:J29)</f>
         <v>76</v>
       </c>
-      <c r="L21" s="149">
+      <c r="L21" s="140">
         <v>100</v>
       </c>
-      <c r="M21" s="151">
+      <c r="M21" s="142">
         <v>3</v>
       </c>
     </row>
@@ -4200,9 +4529,9 @@
       <c r="C22" s="12">
         <v>2</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="152"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="143"/>
       <c r="H22" s="45" t="s">
         <v>20</v>
       </c>
@@ -4212,9 +4541,9 @@
       <c r="J22" s="12">
         <v>4</v>
       </c>
-      <c r="K22" s="147"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="152"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="143"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
@@ -4226,9 +4555,9 @@
       <c r="C23" s="61">
         <v>1</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="152"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="143"/>
       <c r="H23" s="51" t="s">
         <v>21</v>
       </c>
@@ -4239,9 +4568,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K23" s="147"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="152"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="143"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
@@ -4253,9 +4582,9 @@
       <c r="C24" s="61">
         <v>2</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="152"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="143"/>
       <c r="H24" s="51" t="s">
         <v>22</v>
       </c>
@@ -4266,9 +4595,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K24" s="147"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="152"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="143"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
@@ -4280,9 +4609,9 @@
       <c r="C25" s="61">
         <v>1</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="152"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="143"/>
       <c r="H25" s="51" t="s">
         <v>23</v>
       </c>
@@ -4293,9 +4622,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K25" s="147"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="152"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="143"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="51" t="s">
@@ -4307,9 +4636,9 @@
       <c r="C26" s="61">
         <v>2</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="152"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="143"/>
       <c r="H26" s="51" t="s">
         <v>24</v>
       </c>
@@ -4320,9 +4649,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K26" s="147"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="152"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="143"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
@@ -4334,9 +4663,9 @@
       <c r="C27" s="61">
         <v>1</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="152"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="143"/>
       <c r="H27" s="51" t="s">
         <v>10</v>
       </c>
@@ -4347,9 +4676,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K27" s="147"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="152"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="143"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="51" t="s">
@@ -4361,9 +4690,9 @@
       <c r="C28" s="61">
         <v>1</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="152"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="143"/>
       <c r="H28" s="51" t="s">
         <v>11</v>
       </c>
@@ -4374,9 +4703,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K28" s="147"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="152"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="143"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
@@ -4388,9 +4717,9 @@
       <c r="C29" s="62">
         <v>1</v>
       </c>
-      <c r="D29" s="148"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="153"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="144"/>
       <c r="H29" s="52" t="s">
         <v>12</v>
       </c>
@@ -4400,12 +4729,21 @@
       <c r="J29" s="62">
         <v>2</v>
       </c>
-      <c r="K29" s="148"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="153"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="F12:F20"/>
     <mergeCell ref="K21:K29"/>
     <mergeCell ref="L21:L29"/>
     <mergeCell ref="M21:M29"/>
@@ -4415,15 +4753,6 @@
     <mergeCell ref="K12:K20"/>
     <mergeCell ref="L12:L20"/>
     <mergeCell ref="M12:M20"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="F12:F20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4436,10 +4765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4453,7 +4782,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4499,51 +4828,51 @@
         <v>10</v>
       </c>
       <c r="B3" s="34">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C3" s="35">
         <f>B9</f>
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D3" s="35">
         <f>C10</f>
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="E3" s="35">
         <f>D10+1</f>
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F3" s="35">
         <f>E9</f>
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G3" s="35">
         <f>F10</f>
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="H3" s="35">
         <f>G10+1</f>
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="I3" s="35">
         <f>H9</f>
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="J3" s="35">
         <f>I10</f>
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="K3" s="35">
         <f>J10+1</f>
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="L3" s="35">
         <f>K9</f>
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="M3" s="36">
         <f>L10</f>
-        <v>30</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4552,51 +4881,51 @@
       </c>
       <c r="B4" s="37">
         <f>B3</f>
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C4" s="19">
         <f>B9+1</f>
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D4" s="19">
         <f>C10</f>
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="E4" s="19">
         <f>E3</f>
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F4" s="19">
         <f>E9+1</f>
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="G4" s="19">
         <f>F10</f>
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="H4" s="19">
         <f>H3</f>
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="I4" s="19">
         <f>H9+1</f>
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J4" s="19">
         <f>I10</f>
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="K4" s="19">
         <f>K3</f>
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="L4" s="19">
         <f>K9+1</f>
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="M4" s="38">
         <f>L10</f>
-        <v>30</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4605,51 +4934,51 @@
       </c>
       <c r="B5" s="37">
         <f>B3</f>
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C5" s="19">
         <f>C4</f>
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D5" s="19">
         <f>C10+1</f>
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="E5" s="19">
         <f>E3</f>
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F5" s="19">
         <f>F4</f>
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="G5" s="19">
         <f>F10+1</f>
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H5" s="19">
         <f>H3</f>
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="I5" s="19">
         <f>I4</f>
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J5" s="19">
         <f>I10+1</f>
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="K5" s="19">
         <f>K3</f>
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="L5" s="19">
         <f>L4</f>
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="M5" s="38">
         <f>L10+1</f>
-        <v>31</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4658,51 +4987,51 @@
       </c>
       <c r="B6" s="37">
         <f>B3+1</f>
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="C6" s="19">
         <f>C4</f>
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D6" s="19">
         <f>D5</f>
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="E6" s="19">
         <f>E3+1</f>
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="F6" s="19">
         <f>F4</f>
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="G6" s="19">
         <f>G5</f>
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H6" s="19">
         <f>H3+1</f>
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I6" s="19">
         <f>I4</f>
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J6" s="19">
         <f>J5</f>
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="K6" s="19">
         <f>K3+1</f>
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="L6" s="19">
         <f>L4</f>
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="M6" s="38">
         <f>M5</f>
-        <v>31</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4711,51 +5040,51 @@
       </c>
       <c r="B7" s="37">
         <f>B6</f>
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="C7" s="19">
         <f>C4+1</f>
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D7" s="19">
         <f>D5</f>
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="E7" s="19">
         <f>E6</f>
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="F7" s="19">
         <f>F4+1</f>
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="G7" s="19">
         <f>G5</f>
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H7" s="19">
         <f>H6</f>
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I7" s="19">
         <f>I4+1</f>
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="J7" s="19">
         <f>J5</f>
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="K7" s="19">
         <f>K6</f>
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="L7" s="19">
         <f>L4+1</f>
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="M7" s="38">
         <f>M5</f>
-        <v>31</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4764,50 +5093,50 @@
       </c>
       <c r="B8" s="37">
         <f>B6</f>
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="C8" s="19">
         <f>C7</f>
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D8" s="19">
         <f>D5+1</f>
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E8" s="19">
         <f>E6</f>
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="F8" s="19">
         <f>F7</f>
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="G8" s="19">
         <f>G5+1</f>
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="H8" s="19">
         <f>H6</f>
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I8" s="19">
         <f>I7</f>
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="J8" s="19">
         <f>J5+1</f>
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="K8" s="19">
         <f>K6</f>
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="L8" s="19">
         <f>L7</f>
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4816,50 +5145,50 @@
       </c>
       <c r="B9" s="37">
         <f>B6+1</f>
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="C9" s="19">
         <f>C7</f>
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D9" s="19">
         <f>D8</f>
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E9" s="19">
         <f>E6+1</f>
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F9" s="19">
         <f>F7</f>
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="G9" s="19">
         <f>G8</f>
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="H9" s="19">
         <f>H6+1</f>
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="I9" s="19">
         <f>I7</f>
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="J9" s="19">
         <f>J8</f>
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="K9" s="19">
         <f>K6+1</f>
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="L9" s="19">
         <f>L7</f>
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4868,50 +5197,50 @@
       </c>
       <c r="B10" s="39">
         <f>B9</f>
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="C10" s="40">
         <f>C7+1</f>
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="D10" s="40">
         <f>D8</f>
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E10" s="40">
         <f>E9</f>
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F10" s="40">
         <f>F7+1</f>
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="G10" s="40">
         <f>G8</f>
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="H10" s="40">
         <f>H9</f>
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="I10" s="40">
         <f>I7+1</f>
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="J10" s="40">
         <f>J8</f>
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="K10" s="40">
         <f>K9</f>
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="L10" s="40">
         <f>L7+1</f>
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4971,10 +5300,10 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="N16" s="45" t="s">
@@ -4988,7 +5317,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="27" t="s">
         <v>44</v>
@@ -5006,7 +5335,7 @@
       </c>
       <c r="P17" s="46"/>
     </row>
-    <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="29" t="s">
         <v>44</v>
@@ -5028,7 +5357,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="26"/>
       <c r="C19" s="27" t="s">
         <v>47</v>
@@ -5041,7 +5370,7 @@
       </c>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="30" t="s">
         <v>49</v>
@@ -5052,7 +5381,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
         <v>47</v>
@@ -5063,12 +5392,544 @@
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2</v>
+      </c>
+      <c r="D24" s="22">
+        <v>3</v>
+      </c>
+      <c r="E24" s="22">
+        <v>4</v>
+      </c>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22">
+        <v>6</v>
+      </c>
+      <c r="H24" s="22">
+        <v>7</v>
+      </c>
+      <c r="I24" s="22">
+        <v>8</v>
+      </c>
+      <c r="J24" s="22">
+        <v>9</v>
+      </c>
+      <c r="K24" s="22">
+        <v>10</v>
+      </c>
+      <c r="L24" s="22">
+        <v>11</v>
+      </c>
+      <c r="M24" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="150">
+        <v>97</v>
+      </c>
+      <c r="C25" s="151">
+        <f>B25+8</f>
+        <v>105</v>
+      </c>
+      <c r="D25" s="151">
+        <f t="shared" ref="D25:M25" si="1">C25+8</f>
+        <v>113</v>
+      </c>
+      <c r="E25" s="151">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="F25" s="151">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="G25" s="151">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="H25" s="151">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I25" s="151">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J25" s="156">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="K25" s="156">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="L25" s="156">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="M25" s="159">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="152">
+        <f>B25+1</f>
+        <v>98</v>
+      </c>
+      <c r="C26" s="153">
+        <f t="shared" ref="C26:M32" si="2">B26+8</f>
+        <v>106</v>
+      </c>
+      <c r="D26" s="153">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="E26" s="153">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="F26" s="153">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="G26" s="153">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="H26" s="153">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="I26" s="153">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="J26" s="157">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="K26" s="157">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="L26" s="157">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="M26" s="160">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="152">
+        <f t="shared" ref="B27:B32" si="3">B26+1</f>
+        <v>99</v>
+      </c>
+      <c r="C27" s="153">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="D27" s="153">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="E27" s="153">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="F27" s="153">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="G27" s="153">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="H27" s="153">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="I27" s="153">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="J27" s="157">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="K27" s="157">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="L27" s="157">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="M27" s="192">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="152">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C28" s="153">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="D28" s="153">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="E28" s="153">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="F28" s="153">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="G28" s="153">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="H28" s="153">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="I28" s="157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="J28" s="157">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="K28" s="157">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="L28" s="157">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="M28" s="192">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="152">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="C29" s="153">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="D29" s="153">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="E29" s="153">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="F29" s="153">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="G29" s="153">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="H29" s="153">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="I29" s="157">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="J29" s="157">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="K29" s="157">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="L29" s="157">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="M29" s="192">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="152">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="C30" s="153">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="D30" s="153">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="E30" s="153">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="F30" s="153">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="G30" s="153">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="H30" s="153">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="I30" s="157">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="J30" s="157">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="K30" s="157">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="L30" s="157">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="M30" s="192">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="152">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="C31" s="153">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="D31" s="153">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="E31" s="153">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="F31" s="153">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="G31" s="153">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="H31" s="153">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="I31" s="157">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="J31" s="157">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="K31" s="157">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="L31" s="157">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="M31" s="192">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="154">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="C32" s="155">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="D32" s="155">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E32" s="155">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="F32" s="155">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="G32" s="155">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="H32" s="155">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="I32" s="158">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="J32" s="158">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="K32" s="158">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="L32" s="158">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="M32" s="193">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5085,10 +5946,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5104,7 +5968,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5147,1744 +6011,4136 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="189">
         <v>1</v>
       </c>
-      <c r="C3" s="35">
-        <f>B9</f>
+      <c r="C3" s="190">
+        <f>B15</f>
         <v>3</v>
       </c>
-      <c r="D3" s="35">
-        <f>C10</f>
+      <c r="D3" s="190">
+        <f>C17</f>
         <v>6</v>
       </c>
-      <c r="E3" s="35">
-        <f>D10+1</f>
+      <c r="E3" s="190">
+        <f>D13+1</f>
         <v>9</v>
       </c>
-      <c r="F3" s="35">
-        <f>E9</f>
+      <c r="F3" s="190">
+        <f>E15</f>
         <v>11</v>
       </c>
-      <c r="G3" s="35">
-        <f>F10</f>
+      <c r="G3" s="190">
+        <f>F17</f>
         <v>14</v>
       </c>
-      <c r="H3" s="35">
-        <f>G10+1</f>
+      <c r="H3" s="190">
+        <f>G13+1</f>
         <v>17</v>
       </c>
-      <c r="I3" s="35">
-        <f>H9</f>
+      <c r="I3" s="190">
+        <f>H15</f>
         <v>19</v>
       </c>
-      <c r="J3" s="35">
-        <f>I10</f>
+      <c r="J3" s="190">
+        <f>I17</f>
         <v>22</v>
       </c>
-      <c r="K3" s="35">
-        <f>J10+1</f>
+      <c r="K3" s="190">
+        <f>J13+1</f>
         <v>25</v>
       </c>
-      <c r="L3" s="35">
-        <f>K9</f>
+      <c r="L3" s="190">
+        <f>K15</f>
         <v>27</v>
       </c>
-      <c r="M3" s="36">
-        <f>L10</f>
+      <c r="M3" s="191">
+        <f>L17</f>
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="220"/>
+      <c r="B4" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L4" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M4" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B5" s="183">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="19">
-        <f>B9+1</f>
+      <c r="C5" s="184">
+        <f>B15+1</f>
         <v>4</v>
       </c>
-      <c r="D4" s="19">
-        <f>C10</f>
+      <c r="D5" s="184">
+        <f>C17</f>
         <v>6</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E5" s="184">
         <f>E3</f>
         <v>9</v>
       </c>
-      <c r="F4" s="19">
-        <f>E9+1</f>
+      <c r="F5" s="184">
+        <f>E15+1</f>
         <v>12</v>
       </c>
-      <c r="G4" s="19">
-        <f>F10</f>
+      <c r="G5" s="184">
+        <f>F17</f>
         <v>14</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H5" s="184">
         <f>H3</f>
         <v>17</v>
       </c>
-      <c r="I4" s="19">
-        <f>H9+1</f>
+      <c r="I5" s="184">
+        <f>H15+1</f>
         <v>20</v>
       </c>
-      <c r="J4" s="19">
-        <f>I10</f>
+      <c r="J5" s="184">
+        <f>I17</f>
         <v>22</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K5" s="184">
         <f>K3</f>
         <v>25</v>
       </c>
-      <c r="L4" s="19">
-        <f>K9+1</f>
+      <c r="L5" s="184">
+        <f>K15+1</f>
         <v>28</v>
       </c>
-      <c r="M4" s="38">
-        <f>L10</f>
+      <c r="M5" s="185">
+        <f>L17</f>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="220"/>
+      <c r="B6" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L6" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M6" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B7" s="183">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19">
-        <f>C4</f>
+      <c r="C7" s="184">
+        <f>C5</f>
         <v>4</v>
       </c>
-      <c r="D5" s="19">
-        <f>C10+1</f>
+      <c r="D7" s="184">
+        <f>C17+1</f>
         <v>7</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E7" s="184">
         <f>E3</f>
         <v>9</v>
       </c>
-      <c r="F5" s="19">
-        <f>F4</f>
+      <c r="F7" s="184">
+        <f>F5</f>
         <v>12</v>
       </c>
-      <c r="G5" s="19">
-        <f>F10+1</f>
+      <c r="G7" s="184">
+        <f>F17+1</f>
         <v>15</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H7" s="184">
         <f>H3</f>
         <v>17</v>
       </c>
-      <c r="I5" s="19">
-        <f>I4</f>
+      <c r="I7" s="184">
+        <f>I5</f>
         <v>20</v>
       </c>
-      <c r="J5" s="19">
-        <f>I10+1</f>
+      <c r="J7" s="184">
+        <f>I17+1</f>
         <v>23</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K7" s="184">
         <f>K3</f>
         <v>25</v>
       </c>
-      <c r="L5" s="19">
-        <f>L4</f>
+      <c r="L7" s="184">
+        <f>L5</f>
         <v>28</v>
       </c>
-      <c r="M5" s="38">
-        <f>L10+1</f>
+      <c r="M7" s="185">
+        <f>L17+1</f>
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="220"/>
+      <c r="B8" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L8" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M8" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B9" s="183">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="19">
-        <f>C4</f>
+      <c r="C9" s="184">
+        <f>C5</f>
         <v>4</v>
       </c>
-      <c r="D6" s="19">
-        <f>D5</f>
+      <c r="D9" s="184">
+        <f>D7</f>
         <v>7</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E9" s="184">
         <f>E3+1</f>
         <v>10</v>
       </c>
-      <c r="F6" s="19">
-        <f>F4</f>
+      <c r="F9" s="184">
+        <f>F5</f>
         <v>12</v>
       </c>
-      <c r="G6" s="19">
-        <f>G5</f>
+      <c r="G9" s="184">
+        <f>G7</f>
         <v>15</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H9" s="184">
         <f>H3+1</f>
         <v>18</v>
       </c>
-      <c r="I6" s="19">
-        <f>I4</f>
+      <c r="I9" s="184">
+        <f>I5</f>
         <v>20</v>
       </c>
-      <c r="J6" s="19">
-        <f>J5</f>
+      <c r="J9" s="184">
+        <f>J7</f>
         <v>23</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K9" s="184">
         <f>K3+1</f>
         <v>26</v>
       </c>
-      <c r="L6" s="19">
-        <f>L4</f>
+      <c r="L9" s="184">
+        <f>L5</f>
         <v>28</v>
       </c>
-      <c r="M6" s="38">
-        <f>M5</f>
+      <c r="M9" s="185">
+        <f>M7</f>
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="220"/>
+      <c r="B10" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L10" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M10" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37">
-        <f>B6</f>
+      <c r="B11" s="186">
+        <f>B9</f>
         <v>2</v>
       </c>
-      <c r="C7" s="19">
-        <f>C4+1</f>
+      <c r="C11" s="187">
+        <f>C5+1</f>
         <v>5</v>
       </c>
-      <c r="D7" s="19">
-        <f>D5</f>
+      <c r="D11" s="187">
+        <f>D7</f>
         <v>7</v>
       </c>
-      <c r="E7" s="19">
-        <f>E6</f>
+      <c r="E11" s="187">
+        <f>E9</f>
         <v>10</v>
       </c>
-      <c r="F7" s="19">
-        <f>F4+1</f>
+      <c r="F11" s="187">
+        <f>F5+1</f>
         <v>13</v>
       </c>
-      <c r="G7" s="19">
-        <f>G5</f>
+      <c r="G11" s="187">
+        <f>G7</f>
         <v>15</v>
       </c>
-      <c r="H7" s="19">
-        <f>H6</f>
+      <c r="H11" s="187">
+        <f>H9</f>
         <v>18</v>
       </c>
-      <c r="I7" s="19">
-        <f>I4+1</f>
+      <c r="I11" s="187">
+        <f>I5+1</f>
         <v>21</v>
       </c>
-      <c r="J7" s="19">
-        <f>J5</f>
+      <c r="J11" s="187">
+        <f>J7</f>
         <v>23</v>
       </c>
-      <c r="K7" s="19">
-        <f>K6</f>
+      <c r="K11" s="187">
+        <f>K9</f>
         <v>26</v>
       </c>
-      <c r="L7" s="19">
-        <f>L4+1</f>
+      <c r="L11" s="187">
+        <f>L5+1</f>
         <v>29</v>
       </c>
-      <c r="M7" s="38">
-        <f>M5</f>
+      <c r="M11" s="188">
+        <f>M7</f>
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="220"/>
+      <c r="B12" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L12" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M12" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="37">
-        <f>B6</f>
+      <c r="B13" s="186">
+        <f>B9</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19">
-        <f>C7</f>
+      <c r="C13" s="187">
+        <f>C11</f>
         <v>5</v>
       </c>
-      <c r="D8" s="19">
-        <f>D5+1</f>
+      <c r="D13" s="187">
+        <f>D7+1</f>
         <v>8</v>
       </c>
-      <c r="E8" s="19">
-        <f>E6</f>
+      <c r="E13" s="187">
+        <f>E9</f>
         <v>10</v>
       </c>
-      <c r="F8" s="19">
-        <f>F7</f>
+      <c r="F13" s="187">
+        <f>F11</f>
         <v>13</v>
       </c>
-      <c r="G8" s="19">
-        <f>G5+1</f>
+      <c r="G13" s="187">
+        <f>G7+1</f>
         <v>16</v>
       </c>
-      <c r="H8" s="19">
-        <f>H6</f>
+      <c r="H13" s="187">
+        <f>H9</f>
         <v>18</v>
       </c>
-      <c r="I8" s="19">
-        <f>I7</f>
+      <c r="I13" s="187">
+        <f>I11</f>
         <v>21</v>
       </c>
-      <c r="J8" s="19">
-        <f>J5+1</f>
+      <c r="J13" s="187">
+        <f>J7+1</f>
         <v>24</v>
       </c>
-      <c r="K8" s="19">
-        <f>K6</f>
+      <c r="K13" s="187">
+        <f>K9</f>
         <v>26</v>
       </c>
-      <c r="L8" s="19">
-        <f>L7</f>
+      <c r="L13" s="187">
+        <f>L11</f>
         <v>29</v>
       </c>
-      <c r="M8" s="159" t="s">
+      <c r="M13" s="188" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="220"/>
+      <c r="B14" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L14" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M14" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="186">
+        <f>B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="187">
+        <f>C11</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="187">
+        <f>D13</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="187">
+        <f>E9+1</f>
+        <v>11</v>
+      </c>
+      <c r="F15" s="187">
+        <f>F11</f>
+        <v>13</v>
+      </c>
+      <c r="G15" s="187">
+        <f>G13</f>
+        <v>16</v>
+      </c>
+      <c r="H15" s="187">
+        <f>H9+1</f>
+        <v>19</v>
+      </c>
+      <c r="I15" s="187">
+        <f>I11</f>
+        <v>21</v>
+      </c>
+      <c r="J15" s="187">
+        <f>J13</f>
+        <v>24</v>
+      </c>
+      <c r="K15" s="187">
+        <f>K9+1</f>
+        <v>27</v>
+      </c>
+      <c r="L15" s="187">
+        <f>L11</f>
+        <v>29</v>
+      </c>
+      <c r="M15" s="188" t="str">
+        <f>M13</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="220"/>
+      <c r="B16" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L16" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M16" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="186">
+        <f>B15</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="187">
+        <f>C11+1</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="187">
+        <f>D13</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="187">
+        <f>E15</f>
+        <v>11</v>
+      </c>
+      <c r="F17" s="187">
+        <f>F11+1</f>
+        <v>14</v>
+      </c>
+      <c r="G17" s="187">
+        <f>G13</f>
+        <v>16</v>
+      </c>
+      <c r="H17" s="187">
+        <f>H15</f>
+        <v>19</v>
+      </c>
+      <c r="I17" s="187">
+        <f>I11+1</f>
+        <v>22</v>
+      </c>
+      <c r="J17" s="187">
+        <f>J13</f>
+        <v>24</v>
+      </c>
+      <c r="K17" s="187">
+        <f>K15</f>
+        <v>27</v>
+      </c>
+      <c r="L17" s="187">
+        <f>L11+1</f>
+        <v>30</v>
+      </c>
+      <c r="M17" s="188" t="str">
+        <f>M13</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="220"/>
+      <c r="B18" s="162">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L18" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M18" s="164">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="194"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="194"/>
+      <c r="B20" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="194"/>
+      <c r="B21" s="22">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2</v>
+      </c>
+      <c r="D21" s="22">
+        <v>3</v>
+      </c>
+      <c r="E21" s="22">
+        <v>4</v>
+      </c>
+      <c r="F21" s="22">
+        <v>5</v>
+      </c>
+      <c r="G21" s="22">
+        <v>6</v>
+      </c>
+      <c r="H21" s="22">
+        <v>7</v>
+      </c>
+      <c r="I21" s="22">
+        <v>8</v>
+      </c>
+      <c r="J21" s="22">
+        <v>9</v>
+      </c>
+      <c r="K21" s="22">
+        <v>10</v>
+      </c>
+      <c r="L21" s="22">
+        <v>11</v>
+      </c>
+      <c r="M21" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="195">
+        <v>32</v>
+      </c>
+      <c r="C22" s="196">
+        <f>B34</f>
+        <v>34</v>
+      </c>
+      <c r="D22" s="196">
+        <f>C36</f>
+        <v>37</v>
+      </c>
+      <c r="E22" s="196">
+        <f>D32+1</f>
+        <v>40</v>
+      </c>
+      <c r="F22" s="196">
+        <f>E34</f>
+        <v>42</v>
+      </c>
+      <c r="G22" s="196">
+        <f>F36</f>
+        <v>45</v>
+      </c>
+      <c r="H22" s="196">
+        <f>G32+1</f>
+        <v>48</v>
+      </c>
+      <c r="I22" s="196">
+        <f>H34</f>
+        <v>50</v>
+      </c>
+      <c r="J22" s="196">
+        <f>I36</f>
+        <v>53</v>
+      </c>
+      <c r="K22" s="196">
+        <f>J32+1</f>
+        <v>56</v>
+      </c>
+      <c r="L22" s="196">
+        <f>K34</f>
+        <v>58</v>
+      </c>
+      <c r="M22" s="197">
+        <f>L36</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="220"/>
+      <c r="B23" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L23" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M23" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="198">
+        <f>B22</f>
+        <v>32</v>
+      </c>
+      <c r="C24" s="199">
+        <f>B34+1</f>
+        <v>35</v>
+      </c>
+      <c r="D24" s="199">
+        <f>C36</f>
+        <v>37</v>
+      </c>
+      <c r="E24" s="199">
+        <f>E22</f>
+        <v>40</v>
+      </c>
+      <c r="F24" s="199">
+        <f>E34+1</f>
+        <v>43</v>
+      </c>
+      <c r="G24" s="199">
+        <f>F36</f>
+        <v>45</v>
+      </c>
+      <c r="H24" s="199">
+        <f>H22</f>
+        <v>48</v>
+      </c>
+      <c r="I24" s="199">
+        <f>H34+1</f>
+        <v>51</v>
+      </c>
+      <c r="J24" s="199">
+        <f>I36</f>
+        <v>53</v>
+      </c>
+      <c r="K24" s="199">
+        <f>K22</f>
+        <v>56</v>
+      </c>
+      <c r="L24" s="199">
+        <f>K34+1</f>
+        <v>59</v>
+      </c>
+      <c r="M24" s="200">
+        <f>L36</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="220"/>
+      <c r="B25" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L25" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M25" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="198">
+        <f>B22</f>
+        <v>32</v>
+      </c>
+      <c r="C26" s="199">
+        <f>C24</f>
+        <v>35</v>
+      </c>
+      <c r="D26" s="199">
+        <f>C36+1</f>
+        <v>38</v>
+      </c>
+      <c r="E26" s="199">
+        <f>E22</f>
+        <v>40</v>
+      </c>
+      <c r="F26" s="199">
+        <f>F24</f>
+        <v>43</v>
+      </c>
+      <c r="G26" s="199">
+        <f>F36+1</f>
+        <v>46</v>
+      </c>
+      <c r="H26" s="199">
+        <f>H22</f>
+        <v>48</v>
+      </c>
+      <c r="I26" s="199">
+        <f>I24</f>
+        <v>51</v>
+      </c>
+      <c r="J26" s="199">
+        <f>I36+1</f>
+        <v>54</v>
+      </c>
+      <c r="K26" s="199">
+        <f>K22</f>
+        <v>56</v>
+      </c>
+      <c r="L26" s="199">
+        <f>L24</f>
+        <v>59</v>
+      </c>
+      <c r="M26" s="200">
+        <f>L36+1</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="220"/>
+      <c r="B27" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L27" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M27" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="198">
+        <f>B22+1</f>
+        <v>33</v>
+      </c>
+      <c r="C28" s="199">
+        <f>C24</f>
+        <v>35</v>
+      </c>
+      <c r="D28" s="199">
+        <f>D26</f>
+        <v>38</v>
+      </c>
+      <c r="E28" s="199">
+        <f>E22+1</f>
+        <v>41</v>
+      </c>
+      <c r="F28" s="199">
+        <f>F24</f>
+        <v>43</v>
+      </c>
+      <c r="G28" s="199">
+        <f>G26</f>
+        <v>46</v>
+      </c>
+      <c r="H28" s="199">
+        <f>H22+1</f>
+        <v>49</v>
+      </c>
+      <c r="I28" s="199">
+        <f>I24</f>
+        <v>51</v>
+      </c>
+      <c r="J28" s="199">
+        <f>J26</f>
+        <v>54</v>
+      </c>
+      <c r="K28" s="199">
+        <f>K22+1</f>
+        <v>57</v>
+      </c>
+      <c r="L28" s="199">
+        <f>L24</f>
+        <v>59</v>
+      </c>
+      <c r="M28" s="200">
+        <f>M26</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="220"/>
+      <c r="B29" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L29" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M29" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="201">
+        <f>B28</f>
+        <v>33</v>
+      </c>
+      <c r="C30" s="202">
+        <f>C24+1</f>
+        <v>36</v>
+      </c>
+      <c r="D30" s="202">
+        <f>D26</f>
+        <v>38</v>
+      </c>
+      <c r="E30" s="202">
+        <f>E28</f>
+        <v>41</v>
+      </c>
+      <c r="F30" s="202">
+        <f>F24+1</f>
+        <v>44</v>
+      </c>
+      <c r="G30" s="202">
+        <f>G26</f>
+        <v>46</v>
+      </c>
+      <c r="H30" s="202">
+        <f>H28</f>
+        <v>49</v>
+      </c>
+      <c r="I30" s="202">
+        <f>I24+1</f>
+        <v>52</v>
+      </c>
+      <c r="J30" s="202">
+        <f>J26</f>
+        <v>54</v>
+      </c>
+      <c r="K30" s="202">
+        <f>K28</f>
+        <v>57</v>
+      </c>
+      <c r="L30" s="202">
+        <f>L24+1</f>
+        <v>60</v>
+      </c>
+      <c r="M30" s="203">
+        <f>M26</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="220"/>
+      <c r="B31" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L31" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M31" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="201">
+        <f>B28</f>
+        <v>33</v>
+      </c>
+      <c r="C32" s="202">
+        <f>C30</f>
+        <v>36</v>
+      </c>
+      <c r="D32" s="202">
+        <f>D26+1</f>
+        <v>39</v>
+      </c>
+      <c r="E32" s="202">
+        <f>E28</f>
+        <v>41</v>
+      </c>
+      <c r="F32" s="202">
+        <f>F30</f>
+        <v>44</v>
+      </c>
+      <c r="G32" s="202">
+        <f>G26+1</f>
+        <v>47</v>
+      </c>
+      <c r="H32" s="202">
+        <f>H28</f>
+        <v>49</v>
+      </c>
+      <c r="I32" s="202">
+        <f>I30</f>
+        <v>52</v>
+      </c>
+      <c r="J32" s="202">
+        <f>J26+1</f>
+        <v>55</v>
+      </c>
+      <c r="K32" s="202">
+        <f>K28</f>
+        <v>57</v>
+      </c>
+      <c r="L32" s="202">
+        <f>L30</f>
+        <v>60</v>
+      </c>
+      <c r="M32" s="203" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="220"/>
+      <c r="B33" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L33" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M33" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="201">
+        <f>B28+1</f>
+        <v>34</v>
+      </c>
+      <c r="C34" s="202">
+        <f>C30</f>
+        <v>36</v>
+      </c>
+      <c r="D34" s="202">
+        <f>D32</f>
+        <v>39</v>
+      </c>
+      <c r="E34" s="202">
+        <f>E28+1</f>
+        <v>42</v>
+      </c>
+      <c r="F34" s="202">
+        <f>F30</f>
+        <v>44</v>
+      </c>
+      <c r="G34" s="202">
+        <f>G32</f>
+        <v>47</v>
+      </c>
+      <c r="H34" s="202">
+        <f>H28+1</f>
+        <v>50</v>
+      </c>
+      <c r="I34" s="202">
+        <f>I30</f>
+        <v>52</v>
+      </c>
+      <c r="J34" s="202">
+        <f>J32</f>
+        <v>55</v>
+      </c>
+      <c r="K34" s="202">
+        <f>K28+1</f>
+        <v>58</v>
+      </c>
+      <c r="L34" s="202">
+        <f>L30</f>
+        <v>60</v>
+      </c>
+      <c r="M34" s="203" t="str">
+        <f>M32</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="220"/>
+      <c r="B35" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L35" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M35" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="201">
+        <f>B34</f>
+        <v>34</v>
+      </c>
+      <c r="C36" s="202">
+        <f>C30+1</f>
+        <v>37</v>
+      </c>
+      <c r="D36" s="202">
+        <f>D32</f>
+        <v>39</v>
+      </c>
+      <c r="E36" s="202">
+        <f>E34</f>
+        <v>42</v>
+      </c>
+      <c r="F36" s="202">
+        <f>F30+1</f>
+        <v>45</v>
+      </c>
+      <c r="G36" s="202">
+        <f>G32</f>
+        <v>47</v>
+      </c>
+      <c r="H36" s="202">
+        <f>H34</f>
+        <v>50</v>
+      </c>
+      <c r="I36" s="202">
+        <f>I30+1</f>
+        <v>53</v>
+      </c>
+      <c r="J36" s="202">
+        <f>J32</f>
+        <v>55</v>
+      </c>
+      <c r="K36" s="202">
+        <f>K34</f>
+        <v>58</v>
+      </c>
+      <c r="L36" s="202">
+        <f>L30+1</f>
+        <v>61</v>
+      </c>
+      <c r="M36" s="203" t="str">
+        <f>M32</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="220"/>
+      <c r="B37" s="162">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L37" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M37" s="164">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="194"/>
+    </row>
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="194"/>
+      <c r="B39" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="194"/>
+      <c r="B40" s="22">
+        <v>1</v>
+      </c>
+      <c r="C40" s="22">
+        <v>2</v>
+      </c>
+      <c r="D40" s="22">
+        <v>3</v>
+      </c>
+      <c r="E40" s="22">
+        <v>4</v>
+      </c>
+      <c r="F40" s="22">
+        <v>5</v>
+      </c>
+      <c r="G40" s="22">
+        <v>6</v>
+      </c>
+      <c r="H40" s="22">
+        <v>7</v>
+      </c>
+      <c r="I40" s="22">
+        <v>8</v>
+      </c>
+      <c r="J40" s="22">
+        <v>9</v>
+      </c>
+      <c r="K40" s="22">
+        <v>10</v>
+      </c>
+      <c r="L40" s="22">
+        <v>11</v>
+      </c>
+      <c r="M40" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="204">
+        <v>63</v>
+      </c>
+      <c r="C41" s="205">
+        <f>B53</f>
+        <v>65</v>
+      </c>
+      <c r="D41" s="205">
+        <f>C55</f>
+        <v>68</v>
+      </c>
+      <c r="E41" s="205">
+        <f>D51+1</f>
+        <v>71</v>
+      </c>
+      <c r="F41" s="205">
+        <f>E53</f>
+        <v>73</v>
+      </c>
+      <c r="G41" s="205">
+        <f>F55</f>
+        <v>76</v>
+      </c>
+      <c r="H41" s="205">
+        <f>G51+1</f>
+        <v>79</v>
+      </c>
+      <c r="I41" s="205">
+        <f>H53</f>
+        <v>81</v>
+      </c>
+      <c r="J41" s="205">
+        <f>I55</f>
+        <v>84</v>
+      </c>
+      <c r="K41" s="205">
+        <f>J51+1</f>
+        <v>87</v>
+      </c>
+      <c r="L41" s="205">
+        <f>K53</f>
+        <v>89</v>
+      </c>
+      <c r="M41" s="206">
+        <f>L55</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="220"/>
+      <c r="B42" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L42" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M42" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="207">
+        <f>B41</f>
+        <v>63</v>
+      </c>
+      <c r="C43" s="208">
+        <f>B53+1</f>
+        <v>66</v>
+      </c>
+      <c r="D43" s="208">
+        <f>C55</f>
+        <v>68</v>
+      </c>
+      <c r="E43" s="208">
+        <f>E41</f>
+        <v>71</v>
+      </c>
+      <c r="F43" s="208">
+        <f>E53+1</f>
+        <v>74</v>
+      </c>
+      <c r="G43" s="208">
+        <f>F55</f>
+        <v>76</v>
+      </c>
+      <c r="H43" s="208">
+        <f>H41</f>
+        <v>79</v>
+      </c>
+      <c r="I43" s="208">
+        <f>H53+1</f>
+        <v>82</v>
+      </c>
+      <c r="J43" s="208">
+        <f>I55</f>
+        <v>84</v>
+      </c>
+      <c r="K43" s="208">
+        <f>K41</f>
+        <v>87</v>
+      </c>
+      <c r="L43" s="208">
+        <f>K53+1</f>
+        <v>90</v>
+      </c>
+      <c r="M43" s="209">
+        <f>L55</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="220"/>
+      <c r="B44" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L44" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M44" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="207">
+        <f>B41</f>
+        <v>63</v>
+      </c>
+      <c r="C45" s="208">
+        <f>C43</f>
+        <v>66</v>
+      </c>
+      <c r="D45" s="208">
+        <f>C55+1</f>
+        <v>69</v>
+      </c>
+      <c r="E45" s="208">
+        <f>E41</f>
+        <v>71</v>
+      </c>
+      <c r="F45" s="208">
+        <f>F43</f>
+        <v>74</v>
+      </c>
+      <c r="G45" s="208">
+        <f>F55+1</f>
+        <v>77</v>
+      </c>
+      <c r="H45" s="208">
+        <f>H41</f>
+        <v>79</v>
+      </c>
+      <c r="I45" s="208">
+        <f>I43</f>
+        <v>82</v>
+      </c>
+      <c r="J45" s="208">
+        <f>I55+1</f>
+        <v>85</v>
+      </c>
+      <c r="K45" s="208">
+        <f>K41</f>
+        <v>87</v>
+      </c>
+      <c r="L45" s="208">
+        <f>L43</f>
+        <v>90</v>
+      </c>
+      <c r="M45" s="209">
+        <f>L55+1</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="220"/>
+      <c r="B46" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L46" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M46" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="207">
+        <f>B41+1</f>
+        <v>64</v>
+      </c>
+      <c r="C47" s="208">
+        <f>C43</f>
+        <v>66</v>
+      </c>
+      <c r="D47" s="208">
+        <f>D45</f>
+        <v>69</v>
+      </c>
+      <c r="E47" s="208">
+        <f>E41+1</f>
+        <v>72</v>
+      </c>
+      <c r="F47" s="208">
+        <f>F43</f>
+        <v>74</v>
+      </c>
+      <c r="G47" s="208">
+        <f>G45</f>
+        <v>77</v>
+      </c>
+      <c r="H47" s="208">
+        <f>H41+1</f>
+        <v>80</v>
+      </c>
+      <c r="I47" s="208">
+        <f>I43</f>
+        <v>82</v>
+      </c>
+      <c r="J47" s="208">
+        <f>J45</f>
+        <v>85</v>
+      </c>
+      <c r="K47" s="208">
+        <f>K41+1</f>
+        <v>88</v>
+      </c>
+      <c r="L47" s="208">
+        <f>L43</f>
+        <v>90</v>
+      </c>
+      <c r="M47" s="209">
+        <f>M45</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="220"/>
+      <c r="B48" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L48" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M48" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="210">
+        <f>B47</f>
+        <v>64</v>
+      </c>
+      <c r="C49" s="211">
+        <f>C43+1</f>
+        <v>67</v>
+      </c>
+      <c r="D49" s="211">
+        <f>D45</f>
+        <v>69</v>
+      </c>
+      <c r="E49" s="211">
+        <f>E47</f>
+        <v>72</v>
+      </c>
+      <c r="F49" s="211">
+        <f>F43+1</f>
+        <v>75</v>
+      </c>
+      <c r="G49" s="211">
+        <f>G45</f>
+        <v>77</v>
+      </c>
+      <c r="H49" s="211">
+        <f>H47</f>
+        <v>80</v>
+      </c>
+      <c r="I49" s="211">
+        <f>I43+1</f>
+        <v>83</v>
+      </c>
+      <c r="J49" s="211">
+        <f>J45</f>
+        <v>85</v>
+      </c>
+      <c r="K49" s="211">
+        <f>K47</f>
+        <v>88</v>
+      </c>
+      <c r="L49" s="211">
+        <f>L43+1</f>
+        <v>91</v>
+      </c>
+      <c r="M49" s="212">
+        <f>M45</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="220"/>
+      <c r="B50" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L50" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M50" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="210">
+        <f>B47</f>
+        <v>64</v>
+      </c>
+      <c r="C51" s="211">
+        <f>C49</f>
+        <v>67</v>
+      </c>
+      <c r="D51" s="211">
+        <f>D45+1</f>
+        <v>70</v>
+      </c>
+      <c r="E51" s="211">
+        <f>E47</f>
+        <v>72</v>
+      </c>
+      <c r="F51" s="211">
+        <f>F49</f>
+        <v>75</v>
+      </c>
+      <c r="G51" s="211">
+        <f>G45+1</f>
+        <v>78</v>
+      </c>
+      <c r="H51" s="211">
+        <f>H47</f>
+        <v>80</v>
+      </c>
+      <c r="I51" s="211">
+        <f>I49</f>
+        <v>83</v>
+      </c>
+      <c r="J51" s="211">
+        <f>J45+1</f>
+        <v>86</v>
+      </c>
+      <c r="K51" s="211">
+        <f>K47</f>
+        <v>88</v>
+      </c>
+      <c r="L51" s="211">
+        <f>L49</f>
+        <v>91</v>
+      </c>
+      <c r="M51" s="212" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="220"/>
+      <c r="B52" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L52" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M52" s="167">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="210">
+        <f>B47+1</f>
+        <v>65</v>
+      </c>
+      <c r="C53" s="211">
+        <f>C49</f>
+        <v>67</v>
+      </c>
+      <c r="D53" s="211">
+        <f>D51</f>
+        <v>70</v>
+      </c>
+      <c r="E53" s="211">
+        <f>E47+1</f>
+        <v>73</v>
+      </c>
+      <c r="F53" s="211">
+        <f>F49</f>
+        <v>75</v>
+      </c>
+      <c r="G53" s="211">
+        <f>G51</f>
+        <v>78</v>
+      </c>
+      <c r="H53" s="211">
+        <f>H47+1</f>
+        <v>81</v>
+      </c>
+      <c r="I53" s="211">
+        <f>I49</f>
+        <v>83</v>
+      </c>
+      <c r="J53" s="211">
+        <f>J51</f>
+        <v>86</v>
+      </c>
+      <c r="K53" s="211">
+        <f>K47+1</f>
+        <v>89</v>
+      </c>
+      <c r="L53" s="211">
+        <f>L49</f>
+        <v>91</v>
+      </c>
+      <c r="M53" s="212" t="str">
+        <f>M51</f>
+        <v>– C</v>
+      </c>
+      <c r="N53" s="213"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="220"/>
+      <c r="B54" s="165">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K54" s="166">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L54" s="214">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M54" s="215">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="210">
+        <f>B53</f>
+        <v>65</v>
+      </c>
+      <c r="C55" s="211">
+        <f>C49+1</f>
+        <v>68</v>
+      </c>
+      <c r="D55" s="211">
+        <f>D51</f>
+        <v>70</v>
+      </c>
+      <c r="E55" s="211">
+        <f>E53</f>
+        <v>73</v>
+      </c>
+      <c r="F55" s="211">
+        <f>F49+1</f>
+        <v>76</v>
+      </c>
+      <c r="G55" s="211">
+        <f>G51</f>
+        <v>78</v>
+      </c>
+      <c r="H55" s="211">
+        <f>H53</f>
+        <v>81</v>
+      </c>
+      <c r="I55" s="211">
+        <f>I49+1</f>
+        <v>84</v>
+      </c>
+      <c r="J55" s="211">
+        <f>J51</f>
+        <v>86</v>
+      </c>
+      <c r="K55" s="211">
+        <f>K53</f>
+        <v>89</v>
+      </c>
+      <c r="L55" s="211">
+        <f>L49+1</f>
+        <v>92</v>
+      </c>
+      <c r="M55" s="212" t="str">
+        <f>M51</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="220"/>
+      <c r="B56" s="162">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L56" s="163">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M56" s="164">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="194"/>
+    </row>
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="194"/>
+      <c r="B58" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="194"/>
+      <c r="B59" s="22">
+        <v>1</v>
+      </c>
+      <c r="C59" s="22">
+        <v>2</v>
+      </c>
+      <c r="D59" s="22">
+        <v>3</v>
+      </c>
+      <c r="E59" s="22">
+        <v>4</v>
+      </c>
+      <c r="F59" s="22">
+        <v>5</v>
+      </c>
+      <c r="G59" s="22">
+        <v>6</v>
+      </c>
+      <c r="H59" s="22">
+        <v>7</v>
+      </c>
+      <c r="I59" s="22">
+        <v>8</v>
+      </c>
+      <c r="J59" s="22">
+        <v>9</v>
+      </c>
+      <c r="K59" s="22">
+        <v>10</v>
+      </c>
+      <c r="L59" s="22">
+        <v>11</v>
+      </c>
+      <c r="M59" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="168">
+        <v>94</v>
+      </c>
+      <c r="C60" s="169">
+        <f>B72</f>
+        <v>96</v>
+      </c>
+      <c r="D60" s="169">
+        <f>C74</f>
+        <v>99</v>
+      </c>
+      <c r="E60" s="169">
+        <f>D70+1</f>
+        <v>102</v>
+      </c>
+      <c r="F60" s="169">
+        <f>E72</f>
+        <v>104</v>
+      </c>
+      <c r="G60" s="169">
+        <f>F74</f>
+        <v>107</v>
+      </c>
+      <c r="H60" s="169">
+        <f>G70+1</f>
+        <v>110</v>
+      </c>
+      <c r="I60" s="169">
+        <f>H72</f>
+        <v>112</v>
+      </c>
+      <c r="J60" s="169">
+        <f>I74</f>
+        <v>115</v>
+      </c>
+      <c r="K60" s="169">
+        <f>J70+1</f>
+        <v>118</v>
+      </c>
+      <c r="L60" s="169">
+        <f>K72</f>
+        <v>120</v>
+      </c>
+      <c r="M60" s="170">
+        <f>L74</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="220"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="166"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="166"/>
+      <c r="I61" s="166"/>
+      <c r="J61" s="166"/>
+      <c r="K61" s="166"/>
+      <c r="L61" s="166"/>
+      <c r="M61" s="167"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="171">
+        <f>B60</f>
+        <v>94</v>
+      </c>
+      <c r="C62" s="172">
+        <f>B72+1</f>
+        <v>97</v>
+      </c>
+      <c r="D62" s="172">
+        <f>C74</f>
+        <v>99</v>
+      </c>
+      <c r="E62" s="172">
+        <f>E60</f>
+        <v>102</v>
+      </c>
+      <c r="F62" s="172">
+        <f>E72+1</f>
+        <v>105</v>
+      </c>
+      <c r="G62" s="172">
+        <f>F74</f>
+        <v>107</v>
+      </c>
+      <c r="H62" s="172">
+        <f>H60</f>
+        <v>110</v>
+      </c>
+      <c r="I62" s="172">
+        <f>H72+1</f>
+        <v>113</v>
+      </c>
+      <c r="J62" s="172">
+        <f>I74</f>
+        <v>115</v>
+      </c>
+      <c r="K62" s="172">
+        <f>K60</f>
+        <v>118</v>
+      </c>
+      <c r="L62" s="172">
+        <f>K72+1</f>
+        <v>121</v>
+      </c>
+      <c r="M62" s="173">
+        <f>L74</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="220"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="166"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="166"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="166"/>
+      <c r="K63" s="166"/>
+      <c r="L63" s="166"/>
+      <c r="M63" s="167"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="171">
+        <f>B60</f>
+        <v>94</v>
+      </c>
+      <c r="C64" s="172">
+        <f>C62</f>
+        <v>97</v>
+      </c>
+      <c r="D64" s="172">
+        <f>C74+1</f>
+        <v>100</v>
+      </c>
+      <c r="E64" s="172">
+        <f>E60</f>
+        <v>102</v>
+      </c>
+      <c r="F64" s="172">
+        <f>F62</f>
+        <v>105</v>
+      </c>
+      <c r="G64" s="172">
+        <f>F74+1</f>
+        <v>108</v>
+      </c>
+      <c r="H64" s="172">
+        <f>H60</f>
+        <v>110</v>
+      </c>
+      <c r="I64" s="172">
+        <f>I62</f>
+        <v>113</v>
+      </c>
+      <c r="J64" s="172">
+        <f>I74+1</f>
+        <v>116</v>
+      </c>
+      <c r="K64" s="172">
+        <f>K60</f>
+        <v>118</v>
+      </c>
+      <c r="L64" s="172">
+        <f>L62</f>
+        <v>121</v>
+      </c>
+      <c r="M64" s="173">
+        <f>L74+1</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="220"/>
+      <c r="B65" s="216"/>
+      <c r="C65" s="214"/>
+      <c r="D65" s="214"/>
+      <c r="E65" s="214"/>
+      <c r="F65" s="214"/>
+      <c r="G65" s="214"/>
+      <c r="H65" s="214"/>
+      <c r="I65" s="214"/>
+      <c r="J65" s="214"/>
+      <c r="K65" s="214"/>
+      <c r="L65" s="214"/>
+      <c r="M65" s="215"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="171">
+        <f>B60+1</f>
+        <v>95</v>
+      </c>
+      <c r="C66" s="172">
+        <f>C62</f>
+        <v>97</v>
+      </c>
+      <c r="D66" s="172">
+        <f>D64</f>
+        <v>100</v>
+      </c>
+      <c r="E66" s="172">
+        <f>E60+1</f>
+        <v>103</v>
+      </c>
+      <c r="F66" s="172">
+        <f>F62</f>
+        <v>105</v>
+      </c>
+      <c r="G66" s="172">
+        <f>G64</f>
+        <v>108</v>
+      </c>
+      <c r="H66" s="172">
+        <f>H60+1</f>
+        <v>111</v>
+      </c>
+      <c r="I66" s="172">
+        <f>I62</f>
+        <v>113</v>
+      </c>
+      <c r="J66" s="172">
+        <f>J64</f>
+        <v>116</v>
+      </c>
+      <c r="K66" s="172">
+        <f>K60+1</f>
+        <v>119</v>
+      </c>
+      <c r="L66" s="172">
+        <f>L62</f>
+        <v>121</v>
+      </c>
+      <c r="M66" s="173">
+        <f>M64</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="220"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
+      <c r="E67" s="166"/>
+      <c r="F67" s="166"/>
+      <c r="G67" s="166"/>
+      <c r="H67" s="166"/>
+      <c r="I67" s="166"/>
+      <c r="J67" s="166"/>
+      <c r="K67" s="166"/>
+      <c r="L67" s="166"/>
+      <c r="M67" s="167"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="174">
+        <f>B66</f>
+        <v>95</v>
+      </c>
+      <c r="C68" s="175">
+        <f>C62+1</f>
+        <v>98</v>
+      </c>
+      <c r="D68" s="175">
+        <f>D64</f>
+        <v>100</v>
+      </c>
+      <c r="E68" s="175">
+        <f>E66</f>
+        <v>103</v>
+      </c>
+      <c r="F68" s="175">
+        <f>F62+1</f>
+        <v>106</v>
+      </c>
+      <c r="G68" s="175">
+        <f>G64</f>
+        <v>108</v>
+      </c>
+      <c r="H68" s="175">
+        <f>H66</f>
+        <v>111</v>
+      </c>
+      <c r="I68" s="175">
+        <f>I62+1</f>
+        <v>114</v>
+      </c>
+      <c r="J68" s="175">
+        <f>J64</f>
+        <v>116</v>
+      </c>
+      <c r="K68" s="175">
+        <f>K66</f>
+        <v>119</v>
+      </c>
+      <c r="L68" s="175">
+        <f>L62+1</f>
+        <v>122</v>
+      </c>
+      <c r="M68" s="176">
+        <f>M64</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="220"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="166"/>
+      <c r="E69" s="166"/>
+      <c r="F69" s="166"/>
+      <c r="G69" s="166"/>
+      <c r="H69" s="166"/>
+      <c r="I69" s="166"/>
+      <c r="J69" s="166"/>
+      <c r="K69" s="166"/>
+      <c r="L69" s="166"/>
+      <c r="M69" s="167"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="174">
+        <f>B66</f>
+        <v>95</v>
+      </c>
+      <c r="C70" s="175">
+        <f>C68</f>
+        <v>98</v>
+      </c>
+      <c r="D70" s="175">
+        <f>D64+1</f>
+        <v>101</v>
+      </c>
+      <c r="E70" s="175">
+        <f>E66</f>
+        <v>103</v>
+      </c>
+      <c r="F70" s="175">
+        <f>F68</f>
+        <v>106</v>
+      </c>
+      <c r="G70" s="175">
+        <f>G64+1</f>
+        <v>109</v>
+      </c>
+      <c r="H70" s="175">
+        <f>H66</f>
+        <v>111</v>
+      </c>
+      <c r="I70" s="175">
+        <f>I68</f>
+        <v>114</v>
+      </c>
+      <c r="J70" s="175">
+        <f>J64+1</f>
+        <v>117</v>
+      </c>
+      <c r="K70" s="175">
+        <f>K66</f>
+        <v>119</v>
+      </c>
+      <c r="L70" s="175">
+        <f>L68</f>
+        <v>122</v>
+      </c>
+      <c r="M70" s="176" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="220"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="166"/>
+      <c r="E71" s="166"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="166"/>
+      <c r="H71" s="166"/>
+      <c r="I71" s="166"/>
+      <c r="J71" s="166"/>
+      <c r="K71" s="166"/>
+      <c r="L71" s="166"/>
+      <c r="M71" s="167"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="174">
+        <f>B66+1</f>
+        <v>96</v>
+      </c>
+      <c r="C72" s="175">
+        <f>C68</f>
+        <v>98</v>
+      </c>
+      <c r="D72" s="175">
+        <f>D70</f>
+        <v>101</v>
+      </c>
+      <c r="E72" s="175">
+        <f>E66+1</f>
+        <v>104</v>
+      </c>
+      <c r="F72" s="175">
+        <f>F68</f>
+        <v>106</v>
+      </c>
+      <c r="G72" s="175">
+        <f>G70</f>
+        <v>109</v>
+      </c>
+      <c r="H72" s="175">
+        <f>H66+1</f>
+        <v>112</v>
+      </c>
+      <c r="I72" s="175">
+        <f>I68</f>
+        <v>114</v>
+      </c>
+      <c r="J72" s="175">
+        <f>J70</f>
+        <v>117</v>
+      </c>
+      <c r="K72" s="175">
+        <f>K66+1</f>
+        <v>120</v>
+      </c>
+      <c r="L72" s="175">
+        <f>L68</f>
+        <v>122</v>
+      </c>
+      <c r="M72" s="176" t="str">
+        <f>M70</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="220"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
+      <c r="I73" s="166"/>
+      <c r="J73" s="166"/>
+      <c r="K73" s="166"/>
+      <c r="L73" s="166"/>
+      <c r="M73" s="167"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="174">
+        <f>B72</f>
+        <v>96</v>
+      </c>
+      <c r="C74" s="175">
+        <f>C68+1</f>
+        <v>99</v>
+      </c>
+      <c r="D74" s="175">
+        <f>D70</f>
+        <v>101</v>
+      </c>
+      <c r="E74" s="175">
+        <f>E72</f>
+        <v>104</v>
+      </c>
+      <c r="F74" s="175">
+        <f>F68+1</f>
+        <v>107</v>
+      </c>
+      <c r="G74" s="175">
+        <f>G70</f>
+        <v>109</v>
+      </c>
+      <c r="H74" s="175">
+        <f>H72</f>
+        <v>112</v>
+      </c>
+      <c r="I74" s="175">
+        <f>I68+1</f>
+        <v>115</v>
+      </c>
+      <c r="J74" s="175">
+        <f>J70</f>
+        <v>117</v>
+      </c>
+      <c r="K74" s="175">
+        <f>K72</f>
+        <v>120</v>
+      </c>
+      <c r="L74" s="175">
+        <f>L68+1</f>
+        <v>123</v>
+      </c>
+      <c r="M74" s="176" t="str">
+        <f>M70</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="220"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
+      <c r="K75" s="163"/>
+      <c r="L75" s="163"/>
+      <c r="M75" s="164"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="194"/>
+    </row>
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="194"/>
+      <c r="B77" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="194"/>
+      <c r="B78" s="22">
+        <v>1</v>
+      </c>
+      <c r="C78" s="22">
+        <v>2</v>
+      </c>
+      <c r="D78" s="22">
+        <v>3</v>
+      </c>
+      <c r="E78" s="22">
+        <v>4</v>
+      </c>
+      <c r="F78" s="22">
+        <v>5</v>
+      </c>
+      <c r="G78" s="22">
+        <v>6</v>
+      </c>
+      <c r="H78" s="22">
+        <v>7</v>
+      </c>
+      <c r="I78" s="22">
+        <v>8</v>
+      </c>
+      <c r="J78" s="22">
+        <v>9</v>
+      </c>
+      <c r="K78" s="22">
+        <v>10</v>
+      </c>
+      <c r="L78" s="22">
+        <v>11</v>
+      </c>
+      <c r="M78" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="217">
+        <v>125</v>
+      </c>
+      <c r="C79" s="218">
+        <f>B91</f>
+        <v>127</v>
+      </c>
+      <c r="D79" s="218">
+        <f>C93</f>
+        <v>130</v>
+      </c>
+      <c r="E79" s="218">
+        <f>D89+1</f>
+        <v>133</v>
+      </c>
+      <c r="F79" s="218">
+        <f>E91</f>
+        <v>135</v>
+      </c>
+      <c r="G79" s="218">
+        <f>F93</f>
+        <v>138</v>
+      </c>
+      <c r="H79" s="218">
+        <f>G89+1</f>
+        <v>141</v>
+      </c>
+      <c r="I79" s="218">
+        <f>H91</f>
+        <v>143</v>
+      </c>
+      <c r="J79" s="218">
+        <f>I93</f>
+        <v>146</v>
+      </c>
+      <c r="K79" s="218">
+        <f>J89+1</f>
+        <v>149</v>
+      </c>
+      <c r="L79" s="218">
+        <f>K91</f>
+        <v>151</v>
+      </c>
+      <c r="M79" s="219">
+        <f>L93</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="220"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
+      <c r="E80" s="166"/>
+      <c r="F80" s="166"/>
+      <c r="G80" s="166"/>
+      <c r="H80" s="166"/>
+      <c r="I80" s="166"/>
+      <c r="J80" s="166"/>
+      <c r="K80" s="166"/>
+      <c r="L80" s="166"/>
+      <c r="M80" s="167"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="177">
+        <f>B79</f>
+        <v>125</v>
+      </c>
+      <c r="C81" s="178">
+        <f>B91+1</f>
+        <v>128</v>
+      </c>
+      <c r="D81" s="178">
+        <f>C93</f>
+        <v>130</v>
+      </c>
+      <c r="E81" s="178">
+        <f>E79</f>
+        <v>133</v>
+      </c>
+      <c r="F81" s="178">
+        <f>E91+1</f>
+        <v>136</v>
+      </c>
+      <c r="G81" s="178">
+        <f>F93</f>
+        <v>138</v>
+      </c>
+      <c r="H81" s="178">
+        <f>H79</f>
+        <v>141</v>
+      </c>
+      <c r="I81" s="178">
+        <f>H91+1</f>
+        <v>144</v>
+      </c>
+      <c r="J81" s="178">
+        <f>I93</f>
+        <v>146</v>
+      </c>
+      <c r="K81" s="178">
+        <f>K79</f>
+        <v>149</v>
+      </c>
+      <c r="L81" s="178">
+        <f>K91+1</f>
+        <v>152</v>
+      </c>
+      <c r="M81" s="179">
+        <f>L93</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="220"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="166"/>
+      <c r="G82" s="166"/>
+      <c r="H82" s="166"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="166"/>
+      <c r="M82" s="167"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="177">
+        <f>B79</f>
+        <v>125</v>
+      </c>
+      <c r="C83" s="178">
+        <f>C81</f>
+        <v>128</v>
+      </c>
+      <c r="D83" s="178">
+        <f>C93+1</f>
+        <v>131</v>
+      </c>
+      <c r="E83" s="178">
+        <f>E79</f>
+        <v>133</v>
+      </c>
+      <c r="F83" s="178">
+        <f>F81</f>
+        <v>136</v>
+      </c>
+      <c r="G83" s="178">
+        <f>F93+1</f>
+        <v>139</v>
+      </c>
+      <c r="H83" s="178">
+        <f>H79</f>
+        <v>141</v>
+      </c>
+      <c r="I83" s="178">
+        <f>I81</f>
+        <v>144</v>
+      </c>
+      <c r="J83" s="178">
+        <f>I93+1</f>
+        <v>147</v>
+      </c>
+      <c r="K83" s="178">
+        <f>K79</f>
+        <v>149</v>
+      </c>
+      <c r="L83" s="178">
+        <f>L81</f>
+        <v>152</v>
+      </c>
+      <c r="M83" s="179">
+        <f>L93+1</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="220"/>
+      <c r="B84" s="216"/>
+      <c r="C84" s="214"/>
+      <c r="D84" s="214"/>
+      <c r="E84" s="214"/>
+      <c r="F84" s="214"/>
+      <c r="G84" s="214"/>
+      <c r="H84" s="214"/>
+      <c r="I84" s="214"/>
+      <c r="J84" s="214"/>
+      <c r="K84" s="214"/>
+      <c r="L84" s="214"/>
+      <c r="M84" s="215"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="177">
+        <f>B79+1</f>
+        <v>126</v>
+      </c>
+      <c r="C85" s="178">
+        <f>C81</f>
+        <v>128</v>
+      </c>
+      <c r="D85" s="178">
+        <f>D83</f>
+        <v>131</v>
+      </c>
+      <c r="E85" s="178">
+        <f>E79+1</f>
+        <v>134</v>
+      </c>
+      <c r="F85" s="178">
+        <f>F81</f>
+        <v>136</v>
+      </c>
+      <c r="G85" s="178">
+        <f>G83</f>
+        <v>139</v>
+      </c>
+      <c r="H85" s="178">
+        <f>H79+1</f>
+        <v>142</v>
+      </c>
+      <c r="I85" s="178">
+        <f>I81</f>
+        <v>144</v>
+      </c>
+      <c r="J85" s="178">
+        <f>J83</f>
+        <v>147</v>
+      </c>
+      <c r="K85" s="178">
+        <f>K79+1</f>
+        <v>150</v>
+      </c>
+      <c r="L85" s="178">
+        <f>L81</f>
+        <v>152</v>
+      </c>
+      <c r="M85" s="179">
+        <f>M83</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="220"/>
+      <c r="B86" s="165"/>
+      <c r="C86" s="166"/>
+      <c r="D86" s="166"/>
+      <c r="E86" s="166"/>
+      <c r="F86" s="166"/>
+      <c r="G86" s="166"/>
+      <c r="H86" s="166"/>
+      <c r="I86" s="166"/>
+      <c r="J86" s="166"/>
+      <c r="K86" s="166"/>
+      <c r="L86" s="166"/>
+      <c r="M86" s="167"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="180">
+        <f>B85</f>
+        <v>126</v>
+      </c>
+      <c r="C87" s="181">
+        <f>C81+1</f>
+        <v>129</v>
+      </c>
+      <c r="D87" s="181">
+        <f>D83</f>
+        <v>131</v>
+      </c>
+      <c r="E87" s="181">
+        <f>E85</f>
+        <v>134</v>
+      </c>
+      <c r="F87" s="181">
+        <f>F81+1</f>
+        <v>137</v>
+      </c>
+      <c r="G87" s="181">
+        <f>G83</f>
+        <v>139</v>
+      </c>
+      <c r="H87" s="181">
+        <f>H85</f>
+        <v>142</v>
+      </c>
+      <c r="I87" s="181">
+        <f>I81+1</f>
+        <v>145</v>
+      </c>
+      <c r="J87" s="181">
+        <f>J83</f>
+        <v>147</v>
+      </c>
+      <c r="K87" s="181">
+        <f>K85</f>
+        <v>150</v>
+      </c>
+      <c r="L87" s="181">
+        <f>L81+1</f>
+        <v>153</v>
+      </c>
+      <c r="M87" s="182">
+        <f>M83</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="220"/>
+      <c r="B88" s="165"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
+      <c r="G88" s="166"/>
+      <c r="H88" s="166"/>
+      <c r="I88" s="166"/>
+      <c r="J88" s="166"/>
+      <c r="K88" s="166"/>
+      <c r="L88" s="166"/>
+      <c r="M88" s="167"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="180">
+        <f>B85</f>
+        <v>126</v>
+      </c>
+      <c r="C89" s="181">
+        <f>C87</f>
+        <v>129</v>
+      </c>
+      <c r="D89" s="181">
+        <f>D83+1</f>
+        <v>132</v>
+      </c>
+      <c r="E89" s="181">
+        <f>E85</f>
+        <v>134</v>
+      </c>
+      <c r="F89" s="181">
+        <f>F87</f>
+        <v>137</v>
+      </c>
+      <c r="G89" s="181">
+        <f>G83+1</f>
+        <v>140</v>
+      </c>
+      <c r="H89" s="181">
+        <f>H85</f>
+        <v>142</v>
+      </c>
+      <c r="I89" s="181">
+        <f>I87</f>
+        <v>145</v>
+      </c>
+      <c r="J89" s="181">
+        <f>J83+1</f>
+        <v>148</v>
+      </c>
+      <c r="K89" s="181">
+        <f>K85</f>
+        <v>150</v>
+      </c>
+      <c r="L89" s="181">
+        <f>L87</f>
+        <v>153</v>
+      </c>
+      <c r="M89" s="182" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="220"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
+      <c r="E90" s="166"/>
+      <c r="F90" s="166"/>
+      <c r="G90" s="166"/>
+      <c r="H90" s="166"/>
+      <c r="I90" s="166"/>
+      <c r="J90" s="166"/>
+      <c r="K90" s="166"/>
+      <c r="L90" s="166"/>
+      <c r="M90" s="167"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="180">
+        <f>B85+1</f>
+        <v>127</v>
+      </c>
+      <c r="C91" s="181">
+        <f>C87</f>
+        <v>129</v>
+      </c>
+      <c r="D91" s="181">
+        <f>D89</f>
+        <v>132</v>
+      </c>
+      <c r="E91" s="181">
+        <f>E85+1</f>
+        <v>135</v>
+      </c>
+      <c r="F91" s="181">
+        <f>F87</f>
+        <v>137</v>
+      </c>
+      <c r="G91" s="181">
+        <f>G89</f>
+        <v>140</v>
+      </c>
+      <c r="H91" s="181">
+        <f>H85+1</f>
+        <v>143</v>
+      </c>
+      <c r="I91" s="181">
+        <f>I87</f>
+        <v>145</v>
+      </c>
+      <c r="J91" s="181">
+        <f>J89</f>
+        <v>148</v>
+      </c>
+      <c r="K91" s="181">
+        <f>K85+1</f>
+        <v>151</v>
+      </c>
+      <c r="L91" s="181">
+        <f>L87</f>
+        <v>153</v>
+      </c>
+      <c r="M91" s="182" t="str">
+        <f>M89</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="220"/>
+      <c r="B92" s="165"/>
+      <c r="C92" s="166"/>
+      <c r="D92" s="166"/>
+      <c r="E92" s="166"/>
+      <c r="F92" s="166"/>
+      <c r="G92" s="166"/>
+      <c r="H92" s="166"/>
+      <c r="I92" s="166"/>
+      <c r="J92" s="166"/>
+      <c r="K92" s="166"/>
+      <c r="L92" s="166"/>
+      <c r="M92" s="167"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="180">
+        <f>B91</f>
+        <v>127</v>
+      </c>
+      <c r="C93" s="181">
+        <f>C87+1</f>
+        <v>130</v>
+      </c>
+      <c r="D93" s="181">
+        <f>D89</f>
+        <v>132</v>
+      </c>
+      <c r="E93" s="181">
+        <f>E91</f>
+        <v>135</v>
+      </c>
+      <c r="F93" s="181">
+        <f>F87+1</f>
+        <v>138</v>
+      </c>
+      <c r="G93" s="181">
+        <f>G89</f>
+        <v>140</v>
+      </c>
+      <c r="H93" s="181">
+        <f>H91</f>
+        <v>143</v>
+      </c>
+      <c r="I93" s="181">
+        <f>I87+1</f>
+        <v>146</v>
+      </c>
+      <c r="J93" s="181">
+        <f>J89</f>
+        <v>148</v>
+      </c>
+      <c r="K93" s="181">
+        <f>K91</f>
+        <v>151</v>
+      </c>
+      <c r="L93" s="181">
+        <f>L87+1</f>
+        <v>154</v>
+      </c>
+      <c r="M93" s="182" t="str">
+        <f>M89</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="220"/>
+      <c r="B94" s="162"/>
+      <c r="C94" s="163"/>
+      <c r="D94" s="163"/>
+      <c r="E94" s="163"/>
+      <c r="F94" s="163"/>
+      <c r="G94" s="163"/>
+      <c r="H94" s="163"/>
+      <c r="I94" s="163"/>
+      <c r="J94" s="163"/>
+      <c r="K94" s="163"/>
+      <c r="L94" s="163"/>
+      <c r="M94" s="164"/>
+    </row>
+    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="194"/>
+      <c r="B96" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="194"/>
+      <c r="B97" s="22">
+        <v>1</v>
+      </c>
+      <c r="C97" s="22">
+        <v>2</v>
+      </c>
+      <c r="D97" s="22">
+        <v>3</v>
+      </c>
+      <c r="E97" s="22">
+        <v>4</v>
+      </c>
+      <c r="F97" s="22">
+        <v>5</v>
+      </c>
+      <c r="G97" s="22">
+        <v>6</v>
+      </c>
+      <c r="H97" s="22">
+        <v>7</v>
+      </c>
+      <c r="I97" s="22">
+        <v>8</v>
+      </c>
+      <c r="J97" s="22">
+        <v>9</v>
+      </c>
+      <c r="K97" s="22">
+        <v>10</v>
+      </c>
+      <c r="L97" s="22">
+        <v>11</v>
+      </c>
+      <c r="M97" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="221">
+        <v>156</v>
+      </c>
+      <c r="C98" s="222">
+        <f>B110</f>
+        <v>158</v>
+      </c>
+      <c r="D98" s="222">
+        <f>C112</f>
+        <v>161</v>
+      </c>
+      <c r="E98" s="222">
+        <f>D108+1</f>
+        <v>164</v>
+      </c>
+      <c r="F98" s="222">
+        <f>E110</f>
+        <v>166</v>
+      </c>
+      <c r="G98" s="222">
+        <f>F112</f>
+        <v>169</v>
+      </c>
+      <c r="H98" s="222">
+        <f>G108+1</f>
+        <v>172</v>
+      </c>
+      <c r="I98" s="222">
+        <f>H110</f>
+        <v>174</v>
+      </c>
+      <c r="J98" s="222">
+        <f>I112</f>
+        <v>177</v>
+      </c>
+      <c r="K98" s="222">
+        <f>J108+1</f>
+        <v>180</v>
+      </c>
+      <c r="L98" s="222">
+        <f>K110</f>
+        <v>182</v>
+      </c>
+      <c r="M98" s="223">
+        <f>L112</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="220"/>
+      <c r="B99" s="165"/>
+      <c r="C99" s="166"/>
+      <c r="D99" s="166"/>
+      <c r="E99" s="166"/>
+      <c r="F99" s="166"/>
+      <c r="G99" s="166"/>
+      <c r="H99" s="166"/>
+      <c r="I99" s="166"/>
+      <c r="J99" s="166"/>
+      <c r="K99" s="166"/>
+      <c r="L99" s="166"/>
+      <c r="M99" s="167"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="224">
+        <f>B98</f>
+        <v>156</v>
+      </c>
+      <c r="C100" s="225">
+        <f>B110+1</f>
+        <v>159</v>
+      </c>
+      <c r="D100" s="225">
+        <f>C112</f>
+        <v>161</v>
+      </c>
+      <c r="E100" s="225">
+        <f>E98</f>
+        <v>164</v>
+      </c>
+      <c r="F100" s="225">
+        <f>E110+1</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="G100" s="225">
+        <f>F112</f>
+        <v>169</v>
+      </c>
+      <c r="H100" s="225">
+        <f>H98</f>
+        <v>172</v>
+      </c>
+      <c r="I100" s="225">
+        <f>H110+1</f>
+        <v>175</v>
+      </c>
+      <c r="J100" s="225">
+        <f>I112</f>
+        <v>177</v>
+      </c>
+      <c r="K100" s="225">
+        <f>K98</f>
+        <v>180</v>
+      </c>
+      <c r="L100" s="225">
+        <f>K110+1</f>
+        <v>183</v>
+      </c>
+      <c r="M100" s="226">
+        <f>L112</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="220"/>
+      <c r="B101" s="165"/>
+      <c r="C101" s="166"/>
+      <c r="D101" s="166"/>
+      <c r="E101" s="166"/>
+      <c r="F101" s="166"/>
+      <c r="G101" s="166"/>
+      <c r="H101" s="166"/>
+      <c r="I101" s="166"/>
+      <c r="J101" s="166"/>
+      <c r="K101" s="166"/>
+      <c r="L101" s="166"/>
+      <c r="M101" s="167"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="224">
+        <f>B98</f>
+        <v>156</v>
+      </c>
+      <c r="C102" s="225">
+        <f>C100</f>
+        <v>159</v>
+      </c>
+      <c r="D102" s="225">
+        <f>C112+1</f>
+        <v>162</v>
+      </c>
+      <c r="E102" s="225">
+        <f>E98</f>
+        <v>164</v>
+      </c>
+      <c r="F102" s="225">
+        <f>F100</f>
+        <v>167</v>
+      </c>
+      <c r="G102" s="225">
+        <f>F112+1</f>
+        <v>170</v>
+      </c>
+      <c r="H102" s="225">
+        <f>H98</f>
+        <v>172</v>
+      </c>
+      <c r="I102" s="225">
+        <f>I100</f>
+        <v>175</v>
+      </c>
+      <c r="J102" s="225">
+        <f>I112+1</f>
+        <v>178</v>
+      </c>
+      <c r="K102" s="225">
+        <f>K98</f>
+        <v>180</v>
+      </c>
+      <c r="L102" s="225">
+        <f>L100</f>
+        <v>183</v>
+      </c>
+      <c r="M102" s="226">
+        <f>L112+1</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="220"/>
+      <c r="B103" s="216"/>
+      <c r="C103" s="214"/>
+      <c r="D103" s="214"/>
+      <c r="E103" s="214"/>
+      <c r="F103" s="214"/>
+      <c r="G103" s="214"/>
+      <c r="H103" s="214"/>
+      <c r="I103" s="214"/>
+      <c r="J103" s="214"/>
+      <c r="K103" s="214"/>
+      <c r="L103" s="214"/>
+      <c r="M103" s="215"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="224">
+        <f>B98+1</f>
+        <v>157</v>
+      </c>
+      <c r="C104" s="225">
+        <f>C100</f>
+        <v>159</v>
+      </c>
+      <c r="D104" s="225">
+        <f>D102</f>
+        <v>162</v>
+      </c>
+      <c r="E104" s="225">
+        <f>E98+1</f>
+        <v>165</v>
+      </c>
+      <c r="F104" s="225">
+        <f>F100</f>
+        <v>167</v>
+      </c>
+      <c r="G104" s="225">
+        <f>G102</f>
+        <v>170</v>
+      </c>
+      <c r="H104" s="225">
+        <f>H98+1</f>
+        <v>173</v>
+      </c>
+      <c r="I104" s="225">
+        <f>I100</f>
+        <v>175</v>
+      </c>
+      <c r="J104" s="225">
+        <f>J102</f>
+        <v>178</v>
+      </c>
+      <c r="K104" s="225">
+        <f>K98+1</f>
+        <v>181</v>
+      </c>
+      <c r="L104" s="225">
+        <f>L100</f>
+        <v>183</v>
+      </c>
+      <c r="M104" s="226">
+        <f>M102</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="220"/>
+      <c r="B105" s="165"/>
+      <c r="C105" s="166"/>
+      <c r="D105" s="166"/>
+      <c r="E105" s="166"/>
+      <c r="F105" s="166"/>
+      <c r="G105" s="166"/>
+      <c r="H105" s="166"/>
+      <c r="I105" s="166"/>
+      <c r="J105" s="166"/>
+      <c r="K105" s="166"/>
+      <c r="L105" s="166"/>
+      <c r="M105" s="167"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="220" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" s="227">
+        <f>B104</f>
+        <v>157</v>
+      </c>
+      <c r="C106" s="228">
+        <f>C100+1</f>
+        <v>160</v>
+      </c>
+      <c r="D106" s="228">
+        <f>D102</f>
+        <v>162</v>
+      </c>
+      <c r="E106" s="228">
+        <f>E104</f>
+        <v>165</v>
+      </c>
+      <c r="F106" s="228">
+        <f>F100+1</f>
+        <v>168</v>
+      </c>
+      <c r="G106" s="228">
+        <f>G102</f>
+        <v>170</v>
+      </c>
+      <c r="H106" s="228">
+        <f>H104</f>
+        <v>173</v>
+      </c>
+      <c r="I106" s="228">
+        <f>I100+1</f>
+        <v>176</v>
+      </c>
+      <c r="J106" s="228">
+        <f>J102</f>
+        <v>178</v>
+      </c>
+      <c r="K106" s="228">
+        <f>K104</f>
+        <v>181</v>
+      </c>
+      <c r="L106" s="228">
+        <f>L100+1</f>
+        <v>184</v>
+      </c>
+      <c r="M106" s="229">
+        <f>M102</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="220"/>
+      <c r="B107" s="165"/>
+      <c r="C107" s="166"/>
+      <c r="D107" s="166"/>
+      <c r="E107" s="166"/>
+      <c r="F107" s="166"/>
+      <c r="G107" s="166"/>
+      <c r="H107" s="166"/>
+      <c r="I107" s="166"/>
+      <c r="J107" s="166"/>
+      <c r="K107" s="166"/>
+      <c r="L107" s="166"/>
+      <c r="M107" s="167"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="227">
+        <f>B104</f>
+        <v>157</v>
+      </c>
+      <c r="C108" s="228">
+        <f>C106</f>
+        <v>160</v>
+      </c>
+      <c r="D108" s="228">
+        <f>D102+1</f>
+        <v>163</v>
+      </c>
+      <c r="E108" s="228">
+        <f>E104</f>
+        <v>165</v>
+      </c>
+      <c r="F108" s="228">
+        <f>F106</f>
+        <v>168</v>
+      </c>
+      <c r="G108" s="228">
+        <f>G102+1</f>
+        <v>171</v>
+      </c>
+      <c r="H108" s="228">
+        <f>H104</f>
+        <v>173</v>
+      </c>
+      <c r="I108" s="228">
+        <f>I106</f>
+        <v>176</v>
+      </c>
+      <c r="J108" s="228">
+        <f>J102+1</f>
+        <v>179</v>
+      </c>
+      <c r="K108" s="228">
+        <f>K104</f>
+        <v>181</v>
+      </c>
+      <c r="L108" s="228">
+        <f>L106</f>
+        <v>184</v>
+      </c>
+      <c r="M108" s="229" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="220"/>
+      <c r="B109" s="165"/>
+      <c r="C109" s="166"/>
+      <c r="D109" s="166"/>
+      <c r="E109" s="166"/>
+      <c r="F109" s="166"/>
+      <c r="G109" s="166"/>
+      <c r="H109" s="166"/>
+      <c r="I109" s="166"/>
+      <c r="J109" s="166"/>
+      <c r="K109" s="166"/>
+      <c r="L109" s="166"/>
+      <c r="M109" s="167"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="37">
-        <f>B6+1</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="19">
-        <f>C7</f>
-        <v>5</v>
-      </c>
-      <c r="D9" s="19">
-        <f>D8</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="19">
-        <f>E6+1</f>
-        <v>11</v>
-      </c>
-      <c r="F9" s="19">
-        <f>F7</f>
-        <v>13</v>
-      </c>
-      <c r="G9" s="19">
-        <f>G8</f>
-        <v>16</v>
-      </c>
-      <c r="H9" s="19">
-        <f>H6+1</f>
-        <v>19</v>
-      </c>
-      <c r="I9" s="19">
-        <f>I7</f>
-        <v>21</v>
-      </c>
-      <c r="J9" s="19">
-        <f>J8</f>
-        <v>24</v>
-      </c>
-      <c r="K9" s="19">
-        <f>K6+1</f>
-        <v>27</v>
-      </c>
-      <c r="L9" s="19">
-        <f>L7</f>
-        <v>29</v>
-      </c>
-      <c r="M9" s="159" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="B110" s="227">
+        <f>B104+1</f>
+        <v>158</v>
+      </c>
+      <c r="C110" s="228">
+        <f>C106</f>
+        <v>160</v>
+      </c>
+      <c r="D110" s="228">
+        <f>D108</f>
+        <v>163</v>
+      </c>
+      <c r="E110" s="228">
+        <f>E104+1</f>
+        <v>166</v>
+      </c>
+      <c r="F110" s="228">
+        <f>F106</f>
+        <v>168</v>
+      </c>
+      <c r="G110" s="228">
+        <f>G108</f>
+        <v>171</v>
+      </c>
+      <c r="H110" s="228">
+        <f>H104+1</f>
+        <v>174</v>
+      </c>
+      <c r="I110" s="228">
+        <f>I106</f>
+        <v>176</v>
+      </c>
+      <c r="J110" s="228">
+        <f>J108</f>
+        <v>179</v>
+      </c>
+      <c r="K110" s="228">
+        <f>K104+1</f>
+        <v>182</v>
+      </c>
+      <c r="L110" s="228">
+        <f>L106</f>
+        <v>184</v>
+      </c>
+      <c r="M110" s="229" t="str">
+        <f>M108</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="220"/>
+      <c r="B111" s="165"/>
+      <c r="C111" s="166"/>
+      <c r="D111" s="166"/>
+      <c r="E111" s="166"/>
+      <c r="F111" s="166"/>
+      <c r="G111" s="166"/>
+      <c r="H111" s="166"/>
+      <c r="I111" s="166"/>
+      <c r="J111" s="166"/>
+      <c r="K111" s="166"/>
+      <c r="L111" s="166"/>
+      <c r="M111" s="167"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="39">
-        <f>B9</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="40">
-        <f>C7+1</f>
-        <v>6</v>
-      </c>
-      <c r="D10" s="40">
-        <f>D8</f>
-        <v>8</v>
-      </c>
-      <c r="E10" s="40">
-        <f>E9</f>
-        <v>11</v>
-      </c>
-      <c r="F10" s="40">
-        <f>F7+1</f>
-        <v>14</v>
-      </c>
-      <c r="G10" s="40">
-        <f>G8</f>
-        <v>16</v>
-      </c>
-      <c r="H10" s="40">
-        <f>H9</f>
-        <v>19</v>
-      </c>
-      <c r="I10" s="40">
-        <f>I7+1</f>
-        <v>22</v>
-      </c>
-      <c r="J10" s="40">
-        <f>J8</f>
-        <v>24</v>
-      </c>
-      <c r="K10" s="40">
-        <f>K9</f>
-        <v>27</v>
-      </c>
-      <c r="L10" s="40">
-        <f>L7+1</f>
-        <v>30</v>
-      </c>
-      <c r="M10" s="160" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="D11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22">
-        <v>2</v>
-      </c>
-      <c r="D13" s="22">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22">
-        <v>4</v>
-      </c>
-      <c r="F13" s="22">
-        <v>5</v>
-      </c>
-      <c r="G13" s="22">
-        <v>6</v>
-      </c>
-      <c r="H13" s="22">
-        <v>7</v>
-      </c>
-      <c r="I13" s="22">
-        <v>8</v>
-      </c>
-      <c r="J13" s="22">
-        <v>9</v>
-      </c>
-      <c r="K13" s="22">
-        <v>10</v>
-      </c>
-      <c r="L13" s="22">
-        <v>11</v>
-      </c>
-      <c r="M13" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="L14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="M14" s="110" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="L15" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="M15" s="113" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" s="113" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="113" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="M18" s="113" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="M19" s="113" t="s">
+      <c r="B112" s="227">
+        <f>B110</f>
+        <v>158</v>
+      </c>
+      <c r="C112" s="228">
+        <f>C106+1</f>
+        <v>161</v>
+      </c>
+      <c r="D112" s="228">
+        <f>D108</f>
+        <v>163</v>
+      </c>
+      <c r="E112" s="228">
+        <f>E110</f>
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="M20" s="113" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="M21" s="116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22">
-        <v>1</v>
-      </c>
-      <c r="C24" s="22">
-        <v>2</v>
-      </c>
-      <c r="D24" s="22">
-        <v>3</v>
-      </c>
-      <c r="E24" s="22">
-        <v>4</v>
-      </c>
-      <c r="F24" s="22">
-        <v>5</v>
-      </c>
-      <c r="G24" s="22">
-        <v>6</v>
-      </c>
-      <c r="H24" s="22">
-        <v>7</v>
-      </c>
-      <c r="I24" s="22">
-        <v>8</v>
-      </c>
-      <c r="J24" s="22">
-        <v>9</v>
-      </c>
-      <c r="K24" s="22">
-        <v>10</v>
-      </c>
-      <c r="L24" s="22">
-        <v>11</v>
-      </c>
-      <c r="M24" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="34">
-        <v>3</v>
-      </c>
-      <c r="C25" s="35">
-        <v>3</v>
-      </c>
-      <c r="D25" s="35">
-        <v>3</v>
-      </c>
-      <c r="E25" s="35">
-        <v>3</v>
-      </c>
-      <c r="F25" s="35">
-        <v>3</v>
-      </c>
-      <c r="G25" s="35">
-        <v>3</v>
-      </c>
-      <c r="H25" s="35">
-        <v>3</v>
-      </c>
-      <c r="I25" s="35">
-        <v>3</v>
-      </c>
-      <c r="J25" s="35">
-        <v>3</v>
-      </c>
-      <c r="K25" s="35">
-        <v>3</v>
-      </c>
-      <c r="L25" s="35">
-        <v>3</v>
-      </c>
-      <c r="M25" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="37">
-        <v>3</v>
-      </c>
-      <c r="C26" s="19">
-        <v>3</v>
-      </c>
-      <c r="D26" s="19">
-        <v>3</v>
-      </c>
-      <c r="E26" s="19">
-        <v>3</v>
-      </c>
-      <c r="F26" s="19">
-        <v>3</v>
-      </c>
-      <c r="G26" s="19">
-        <v>3</v>
-      </c>
-      <c r="H26" s="19">
-        <v>3</v>
-      </c>
-      <c r="I26" s="19">
-        <v>3</v>
-      </c>
-      <c r="J26" s="19">
-        <v>3</v>
-      </c>
-      <c r="K26" s="19">
-        <v>3</v>
-      </c>
-      <c r="L26" s="19">
-        <v>3</v>
-      </c>
-      <c r="M26" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="37">
-        <v>3</v>
-      </c>
-      <c r="C27" s="19">
-        <v>3</v>
-      </c>
-      <c r="D27" s="19">
-        <v>3</v>
-      </c>
-      <c r="E27" s="19">
-        <v>3</v>
-      </c>
-      <c r="F27" s="19">
-        <v>3</v>
-      </c>
-      <c r="G27" s="19">
-        <v>3</v>
-      </c>
-      <c r="H27" s="19">
-        <v>3</v>
-      </c>
-      <c r="I27" s="19">
-        <v>3</v>
-      </c>
-      <c r="J27" s="19">
-        <v>3</v>
-      </c>
-      <c r="K27" s="19">
-        <v>3</v>
-      </c>
-      <c r="L27" s="19">
-        <v>3</v>
-      </c>
-      <c r="M27" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="37">
-        <v>3</v>
-      </c>
-      <c r="C28" s="19">
-        <v>3</v>
-      </c>
-      <c r="D28" s="19">
-        <v>3</v>
-      </c>
-      <c r="E28" s="19">
-        <v>3</v>
-      </c>
-      <c r="F28" s="19">
-        <v>3</v>
-      </c>
-      <c r="G28" s="19">
-        <v>3</v>
-      </c>
-      <c r="H28" s="19">
-        <v>3</v>
-      </c>
-      <c r="I28" s="19">
-        <v>3</v>
-      </c>
-      <c r="J28" s="19">
-        <v>3</v>
-      </c>
-      <c r="K28" s="19">
-        <v>3</v>
-      </c>
-      <c r="L28" s="19">
-        <v>3</v>
-      </c>
-      <c r="M28" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="37">
-        <v>3</v>
-      </c>
-      <c r="C29" s="19">
-        <v>3</v>
-      </c>
-      <c r="D29" s="19">
-        <v>3</v>
-      </c>
-      <c r="E29" s="19">
-        <v>3</v>
-      </c>
-      <c r="F29" s="19">
-        <v>3</v>
-      </c>
-      <c r="G29" s="19">
-        <v>3</v>
-      </c>
-      <c r="H29" s="19">
-        <v>3</v>
-      </c>
-      <c r="I29" s="19">
-        <v>3</v>
-      </c>
-      <c r="J29" s="19">
-        <v>3</v>
-      </c>
-      <c r="K29" s="19">
-        <v>3</v>
-      </c>
-      <c r="L29" s="19">
-        <v>3</v>
-      </c>
-      <c r="M29" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="37">
-        <v>3</v>
-      </c>
-      <c r="C30" s="19">
-        <v>3</v>
-      </c>
-      <c r="D30" s="19">
-        <v>3</v>
-      </c>
-      <c r="E30" s="19">
-        <v>3</v>
-      </c>
-      <c r="F30" s="19">
-        <v>3</v>
-      </c>
-      <c r="G30" s="19">
-        <v>3</v>
-      </c>
-      <c r="H30" s="19">
-        <v>3</v>
-      </c>
-      <c r="I30" s="19">
-        <v>3</v>
-      </c>
-      <c r="J30" s="19">
-        <v>3</v>
-      </c>
-      <c r="K30" s="19">
-        <v>3</v>
-      </c>
-      <c r="L30" s="19">
-        <v>3</v>
-      </c>
-      <c r="M30" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="37">
-        <v>3</v>
-      </c>
-      <c r="C31" s="19">
-        <v>3</v>
-      </c>
-      <c r="D31" s="19">
-        <v>3</v>
-      </c>
-      <c r="E31" s="19">
-        <v>3</v>
-      </c>
-      <c r="F31" s="19">
-        <v>3</v>
-      </c>
-      <c r="G31" s="19">
-        <v>3</v>
-      </c>
-      <c r="H31" s="19">
-        <v>3</v>
-      </c>
-      <c r="I31" s="19">
-        <v>3</v>
-      </c>
-      <c r="J31" s="19">
-        <v>3</v>
-      </c>
-      <c r="K31" s="19">
-        <v>3</v>
-      </c>
-      <c r="L31" s="19">
-        <v>3</v>
-      </c>
-      <c r="M31" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="39">
-        <v>3</v>
-      </c>
-      <c r="C32" s="40">
-        <v>3</v>
-      </c>
-      <c r="D32" s="40">
-        <v>3</v>
-      </c>
-      <c r="E32" s="40">
-        <v>3</v>
-      </c>
-      <c r="F32" s="40">
-        <v>3</v>
-      </c>
-      <c r="G32" s="40">
-        <v>3</v>
-      </c>
-      <c r="H32" s="40">
-        <v>3</v>
-      </c>
-      <c r="I32" s="40">
-        <v>3</v>
-      </c>
-      <c r="J32" s="40">
-        <v>3</v>
-      </c>
-      <c r="K32" s="40">
-        <v>3</v>
-      </c>
-      <c r="L32" s="40">
-        <v>3</v>
-      </c>
-      <c r="M32" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-      <c r="B34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22">
-        <v>1</v>
-      </c>
-      <c r="C35" s="22">
-        <v>2</v>
-      </c>
-      <c r="D35" s="22">
-        <v>3</v>
-      </c>
-      <c r="E35" s="22">
-        <v>4</v>
-      </c>
-      <c r="F35" s="22">
-        <v>5</v>
-      </c>
-      <c r="G35" s="22">
-        <v>6</v>
-      </c>
-      <c r="H35" s="22">
-        <v>7</v>
-      </c>
-      <c r="I35" s="22">
-        <v>8</v>
-      </c>
-      <c r="J35" s="22">
-        <v>9</v>
-      </c>
-      <c r="K35" s="22">
-        <v>10</v>
-      </c>
-      <c r="L35" s="22">
-        <v>11</v>
-      </c>
-      <c r="M35" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="34">
-        <v>60</v>
-      </c>
-      <c r="C36" s="35">
-        <v>60</v>
-      </c>
-      <c r="D36" s="35">
-        <v>60</v>
-      </c>
-      <c r="E36" s="35">
-        <v>60</v>
-      </c>
-      <c r="F36" s="35">
-        <v>60</v>
-      </c>
-      <c r="G36" s="35">
-        <v>60</v>
-      </c>
-      <c r="H36" s="35">
-        <v>60</v>
-      </c>
-      <c r="I36" s="35">
-        <v>60</v>
-      </c>
-      <c r="J36" s="35">
-        <v>60</v>
-      </c>
-      <c r="K36" s="35">
-        <v>60</v>
-      </c>
-      <c r="L36" s="35">
-        <v>60</v>
-      </c>
-      <c r="M36" s="36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="37">
-        <v>60</v>
-      </c>
-      <c r="C37" s="19">
-        <v>60</v>
-      </c>
-      <c r="D37" s="19">
-        <v>60</v>
-      </c>
-      <c r="E37" s="19">
-        <v>60</v>
-      </c>
-      <c r="F37" s="19">
-        <v>60</v>
-      </c>
-      <c r="G37" s="19">
-        <v>60</v>
-      </c>
-      <c r="H37" s="19">
-        <v>60</v>
-      </c>
-      <c r="I37" s="19">
-        <v>60</v>
-      </c>
-      <c r="J37" s="19">
-        <v>60</v>
-      </c>
-      <c r="K37" s="19">
-        <v>60</v>
-      </c>
-      <c r="L37" s="19">
-        <v>60</v>
-      </c>
-      <c r="M37" s="38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="37">
-        <v>60</v>
-      </c>
-      <c r="C38" s="19">
-        <v>60</v>
-      </c>
-      <c r="D38" s="19">
-        <v>60</v>
-      </c>
-      <c r="E38" s="19">
-        <v>60</v>
-      </c>
-      <c r="F38" s="19">
-        <v>60</v>
-      </c>
-      <c r="G38" s="19">
-        <v>60</v>
-      </c>
-      <c r="H38" s="19">
-        <v>60</v>
-      </c>
-      <c r="I38" s="19">
-        <v>60</v>
-      </c>
-      <c r="J38" s="19">
-        <v>60</v>
-      </c>
-      <c r="K38" s="19">
-        <v>60</v>
-      </c>
-      <c r="L38" s="19">
-        <v>60</v>
-      </c>
-      <c r="M38" s="38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="37">
-        <v>60</v>
-      </c>
-      <c r="C39" s="19">
-        <v>60</v>
-      </c>
-      <c r="D39" s="19">
-        <v>60</v>
-      </c>
-      <c r="E39" s="19">
-        <v>60</v>
-      </c>
-      <c r="F39" s="19">
-        <v>60</v>
-      </c>
-      <c r="G39" s="19">
-        <v>60</v>
-      </c>
-      <c r="H39" s="19">
-        <v>60</v>
-      </c>
-      <c r="I39" s="19">
-        <v>60</v>
-      </c>
-      <c r="J39" s="19">
-        <v>60</v>
-      </c>
-      <c r="K39" s="19">
-        <v>60</v>
-      </c>
-      <c r="L39" s="19">
-        <v>60</v>
-      </c>
-      <c r="M39" s="38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="37">
-        <v>60</v>
-      </c>
-      <c r="C40" s="19">
-        <v>60</v>
-      </c>
-      <c r="D40" s="19">
-        <v>60</v>
-      </c>
-      <c r="E40" s="19">
-        <v>60</v>
-      </c>
-      <c r="F40" s="19">
-        <v>60</v>
-      </c>
-      <c r="G40" s="19">
-        <v>60</v>
-      </c>
-      <c r="H40" s="19">
-        <v>60</v>
-      </c>
-      <c r="I40" s="19">
-        <v>60</v>
-      </c>
-      <c r="J40" s="19">
-        <v>60</v>
-      </c>
-      <c r="K40" s="19">
-        <v>60</v>
-      </c>
-      <c r="L40" s="19">
-        <v>60</v>
-      </c>
-      <c r="M40" s="38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="37">
-        <v>60</v>
-      </c>
-      <c r="C41" s="19">
-        <v>60</v>
-      </c>
-      <c r="D41" s="19">
-        <v>60</v>
-      </c>
-      <c r="E41" s="19">
-        <v>60</v>
-      </c>
-      <c r="F41" s="19">
-        <v>60</v>
-      </c>
-      <c r="G41" s="19">
-        <v>60</v>
-      </c>
-      <c r="H41" s="19">
-        <v>60</v>
-      </c>
-      <c r="I41" s="19">
-        <v>60</v>
-      </c>
-      <c r="J41" s="19">
-        <v>60</v>
-      </c>
-      <c r="K41" s="19">
-        <v>60</v>
-      </c>
-      <c r="L41" s="19">
-        <v>60</v>
-      </c>
-      <c r="M41" s="38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="37">
-        <v>60</v>
-      </c>
-      <c r="C42" s="19">
-        <v>60</v>
-      </c>
-      <c r="D42" s="19">
-        <v>60</v>
-      </c>
-      <c r="E42" s="19">
-        <v>60</v>
-      </c>
-      <c r="F42" s="19">
-        <v>60</v>
-      </c>
-      <c r="G42" s="19">
-        <v>60</v>
-      </c>
-      <c r="H42" s="19">
-        <v>60</v>
-      </c>
-      <c r="I42" s="19">
-        <v>60</v>
-      </c>
-      <c r="J42" s="19">
-        <v>60</v>
-      </c>
-      <c r="K42" s="19">
-        <v>60</v>
-      </c>
-      <c r="L42" s="19">
-        <v>60</v>
-      </c>
-      <c r="M42" s="38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="39">
-        <v>60</v>
-      </c>
-      <c r="C43" s="40">
-        <v>60</v>
-      </c>
-      <c r="D43" s="40">
-        <v>60</v>
-      </c>
-      <c r="E43" s="40">
-        <v>60</v>
-      </c>
-      <c r="F43" s="40">
-        <v>60</v>
-      </c>
-      <c r="G43" s="40">
-        <v>60</v>
-      </c>
-      <c r="H43" s="40">
-        <v>60</v>
-      </c>
-      <c r="I43" s="40">
-        <v>60</v>
-      </c>
-      <c r="J43" s="40">
-        <v>60</v>
-      </c>
-      <c r="K43" s="40">
-        <v>60</v>
-      </c>
-      <c r="L43" s="40">
-        <v>60</v>
-      </c>
-      <c r="M43" s="41">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-      <c r="D46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-      <c r="D47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-      <c r="D48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="D49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-      <c r="D50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="D51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-      <c r="D52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-      <c r="D53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-      <c r="D54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-      <c r="D55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56"/>
-      <c r="D56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-      <c r="D57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="D58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59"/>
-      <c r="D59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-      <c r="D60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-      <c r="D61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-      <c r="D62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-      <c r="D63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-      <c r="D64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="D65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="D66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="D67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="D68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="D69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="D70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-      <c r="D71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="D72"/>
-      <c r="K72"/>
-      <c r="L72"/>
+      <c r="F112" s="228">
+        <f>F106+1</f>
+        <v>169</v>
+      </c>
+      <c r="G112" s="228">
+        <f>G108</f>
+        <v>171</v>
+      </c>
+      <c r="H112" s="228">
+        <f>H110</f>
+        <v>174</v>
+      </c>
+      <c r="I112" s="228">
+        <f>I106+1</f>
+        <v>177</v>
+      </c>
+      <c r="J112" s="228">
+        <f>J108</f>
+        <v>179</v>
+      </c>
+      <c r="K112" s="228">
+        <f>K110</f>
+        <v>182</v>
+      </c>
+      <c r="L112" s="228">
+        <f>L106+1</f>
+        <v>185</v>
+      </c>
+      <c r="M112" s="229" t="str">
+        <f>M108</f>
+        <v>– C</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="220"/>
+      <c r="B113" s="162"/>
+      <c r="C113" s="163"/>
+      <c r="D113" s="163"/>
+      <c r="E113" s="163"/>
+      <c r="F113" s="163"/>
+      <c r="G113" s="163"/>
+      <c r="H113" s="163"/>
+      <c r="I113" s="163"/>
+      <c r="J113" s="163"/>
+      <c r="K113" s="163"/>
+      <c r="L113" s="163"/>
+      <c r="M113" s="164"/>
     </row>
   </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>